--- a/Assets/Resources/ExcelData/Excel/MainData.xlsx
+++ b/Assets/Resources/ExcelData/Excel/MainData.xlsx
@@ -104,7 +104,7 @@
     <t>又名多尾凤蛾，分布在马达加斯加。是世界上最美最毒的蛾，其翅膀犹如太阳照射出来的光芒，五彩缤纷，但有剧毒。</t>
   </si>
   <si>
-    <t>Sprites/昆虫世界/太阳娥</t>
+    <t>Sprites/昆虫世界/太阳蛾</t>
   </si>
   <si>
     <r>
@@ -23103,9 +23103,9 @@
   <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D232" sqref="D232"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/Assets/Resources/ExcelData/Excel/MainData.xlsx
+++ b/Assets/Resources/ExcelData/Excel/MainData.xlsx
@@ -94,7 +94,27 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Chrysiridia riphearia</t>
+      <t>Chrysiridia</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>riphearia</t>
     </r>
   </si>
   <si>
@@ -157,7 +177,51 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Actias selene ningpoana</t>
+      <t>Actias</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>selene</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ningpoana</t>
     </r>
   </si>
   <si>
@@ -242,7 +306,27 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Bhutanitis thaidina</t>
+      <t>Bhutanitis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>thaidina</t>
     </r>
   </si>
   <si>
@@ -295,7 +379,27 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Parnassius apollo</t>
+      <t>Parnassius</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apollo</t>
     </r>
   </si>
   <si>
@@ -380,7 +484,27 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Polyura eudamippus</t>
+      <t>Polyura</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eudamippus</t>
     </r>
   </si>
   <si>
@@ -410,7 +534,27 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Ornithoptera priamus</t>
+      <t>Ornithoptera</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>priamus</t>
     </r>
   </si>
   <si>
@@ -440,7 +584,27 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Papilio memnon</t>
+      <t>Papilio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>memnon</t>
     </r>
   </si>
   <si>
@@ -503,806 +667,1291 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rapae</t>
+    </r>
+  </si>
+  <si>
+    <t>菜粉蝶</t>
+  </si>
+  <si>
+    <t>全国均有分布，幼虫主要为害十字花科蔬菜，尤以芥蓝、甘蓝、花椰菜等受害比较严重。</t>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/菜粉蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钩粉蝶</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gonepteryx</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rhamni</t>
+    </r>
+  </si>
+  <si>
+    <t>钩粉蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布于欧洲、北美、亚洲各地。其寿命是蝴蝶中最长的，成虫阶段可达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月。</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/钩粉蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>落叶松枯叶蛾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Paralebeda</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plagifera</t>
+    </r>
+  </si>
+  <si>
+    <t>落叶松枯叶蛾</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布于东北各省、朝鲜和日本，在我国东北地区每年发生一代，成虫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月份出现，幼虫是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东北林区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>害虫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，主要为害落叶松、榛、栎、杨等，食害针叶，爆发时吃光针叶，使枝干形同火烧，严重时使松林成片枯死。</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/落叶松枯叶蛾</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乌桕大蚕蛾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Attacus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atlas</t>
+    </r>
+  </si>
+  <si>
+    <t>乌桕大蚕蛾</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布于热带、亚热带地区，是世界最大的蛾类，翅展可达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180-210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毫米。雄蛾的触角呈羽状，而雌蛾的翅膀形状较为宽圆，腹部较肥胖。这种蛾类十分珍贵，数量稀少，属于受保护的种类。</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/乌桕大蚕蛾</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光明女神蝶　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Morpho　helena</t>
+    </r>
+  </si>
+  <si>
+    <t>光明女神蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布于巴西、秘鲁、哥伦比亚，为秘鲁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国蝶，被认为是世界上最美丽的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蝴蝶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。其前翅两端的蓝色有深蓝、湛蓝、浅蓝不断的变化，整个翅面犹如蓝色的天空镶嵌一串亮丽的光环，给人间带来光明。她的形状、颜色都是无与伦比、无可挑剔的美丽。现已基本绝迹。</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/光明女神蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿带翠凤蝶</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Papilio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>maackii</t>
+    </r>
+  </si>
+  <si>
+    <t>绿带翠凤蝶</t>
+  </si>
+  <si>
+    <t>又名深山乌鸦凤蝶，分布在中国、日本、朝鲜、俄罗斯等。其前翅表面有鲜艳的金绿色鳞片，前翅外缘由金绿鳞片密集形成带状纹，并与后翅中部密集的金蓝色鳞片带状纹相连接。这种蝴蝶常沿山溪水道飞行，春季体型小，夏季体型大。</t>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/绿带翠凤蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虎斑蝶</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Danaus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>genutia</t>
+    </r>
+  </si>
+  <si>
+    <t>虎斑蝶</t>
+  </si>
+  <si>
+    <t>又名拟阿檀蝶，分布于广东、广西、台湾等地。飞行速度比一般蝴蝶慢，幼虫以有毒的天星藤为食料，毒素积聚在蝴蝶体内。</t>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/虎斑蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黒脉蛱蝶</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hestina</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>assimilis</t>
+    </r>
+  </si>
+  <si>
+    <t>黒脉蛱蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布在中国、朝鲜和日本等地区。翅面淡灰绿色，翅脉黑褐色，每一翅室有灰绿色斑和灰黑色小点。后翅外缘有淡黑色月牙斑，翅展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>93mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/黒脉蛱蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天堂凤蝶</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Papilio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ulysses</t>
+    </r>
+  </si>
+  <si>
+    <t>天堂凤蝶</t>
+  </si>
+  <si>
+    <t>又名琉璃凤蝶、英雄凤蝶，为澳大利亚国蝶。四翅内侧二分之一为纯净的大蓝色，外侧二分之一为黑褐色，后翅有黑色的尾突。</t>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/天堂凤蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美神闪蝶</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Morpho</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>anaxibia</t>
+    </r>
+  </si>
+  <si>
+    <t>美神闪蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅分布于巴西。翅展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14-16cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，色彩鲜艳，花纹相当复杂。幼虫一般群集生活，主要取食豆科植物。</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/美神闪蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白斑眼蝶</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Penthema</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>adelma</t>
+    </r>
+  </si>
+  <si>
+    <t>白斑眼蝶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布于我国南方等省区。前翅正面亚外缘有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列小白点，内侧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列稍大；前缘中部斜向后角有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列大白斑，后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个最大，中室端也有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个大白斑；后翅正面亚外缘有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列白斑。</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprites/昆虫世界/白斑眼蝶</t>
+  </si>
+  <si>
+    <t>牡丹江流域植物资源</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牡丹江流域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地貌多变，形成了交错多样的自然景观，构成了森林、灌丛、湿地、草原、农田等多种生态系统，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物资源丰富，有被子植物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>余种，裸子植物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种，蕨类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>余种，苔藓植物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>余种。其中包括药用植物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>余种，著名的地道药材有人参、五味子、龙胆、桔梗等；用材植物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>余种，如红松、臭冷杉、长白落叶松等珍贵的针叶树种及水曲柳、黄檗、胡桃楸等优良的阔叶树种。</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/牡丹江流域植物资源</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白桦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rapae</t>
-    </r>
-  </si>
-  <si>
-    <t>菜粉蝶</t>
-  </si>
-  <si>
-    <t>全国均有分布，幼虫主要为害十字花科蔬菜，尤以芥蓝、甘蓝、花椰菜等受害比较严重。</t>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/菜粉蝶</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Betula</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钩粉蝶</t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Gonepteryx rhamni</t>
-    </r>
-  </si>
-  <si>
-    <t>钩粉蝶</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分布于欧洲、北美、亚洲各地。其寿命是蝴蝶中最长的，成虫阶段可达</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9-10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月。</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/钩粉蝶</t>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>platyphylla</t>
+    </r>
+  </si>
+  <si>
+    <t>白桦</t>
+  </si>
+  <si>
+    <t>又称桦木，桦木科，桦木属。落叶乔木，树皮白色。喜光、不耐荫、耐严寒、耐瘠薄。树皮可提桦油；树汁可入药。</t>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/白桦</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">落叶松枯叶蛾 </t>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒙古栎</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Paralebeda plagifera</t>
-    </r>
-  </si>
-  <si>
-    <t>落叶松枯叶蛾</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分布于东北各省、朝鲜和日本，在我国东北地区每年发生一代，成虫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月份出现，幼虫是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东北林区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>害虫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，主要为害落叶松、榛、栎、杨等，食害针叶，爆发时吃光针叶，使枝干形同火烧，严重时使松林成片枯死。</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/落叶松枯叶蛾</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Quercus</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乌桕大蚕蛾</t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Attacus atlas</t>
-    </r>
-  </si>
-  <si>
-    <t>乌桕大蚕蛾</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分布于热带、亚热带地区，是世界最大的蛾类，翅展可达</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>180-210</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>毫米。雄蛾的触角呈羽状，而雌蛾的翅膀形状较为宽圆，腹部较肥胖。这种蛾类十分珍贵，数量稀少，属于受保护的种类。</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/乌桕大蚕蛾</t>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mongolica</t>
+    </r>
+  </si>
+  <si>
+    <t>蒙古栎</t>
+  </si>
+  <si>
+    <t>又称柞树，壳斗科，栎属。落叶乔木。喜光、耐寒、耐干旱、抗腐、耐水湿。种子可酿酒；树皮可入药。</t>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/蒙古栎</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>光明女神蝶</t>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>色木槭</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Acer</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Morpho helena</t>
-    </r>
-  </si>
-  <si>
-    <t>光明女神蝶</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分布于巴西、秘鲁、哥伦比亚，为秘鲁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国蝶，被认为是世界上最美丽的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蝴蝶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。其前翅两端的蓝色有深蓝、湛蓝、浅蓝不断的变化，整个翅面犹如蓝色的天空镶嵌一串亮丽的光环，给人间带来光明。她的形状、颜色都是无与伦比、无可挑剔的美丽。现已基本绝迹。</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/光明女神蝶</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绿带翠凤蝶</t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pictum</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Papilio maackii</t>
-    </r>
-  </si>
-  <si>
-    <t>绿带翠凤蝶</t>
-  </si>
-  <si>
-    <t>又名深山乌鸦凤蝶，分布在中国、日本、朝鲜、俄罗斯等。其前翅表面有鲜艳的金绿色鳞片，前翅外缘由金绿鳞片密集形成带状纹，并与后翅中部密集的金蓝色鳞片带状纹相连接。这种蝴蝶常沿山溪水道飞行，春季体型小，夏季体型大。</t>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/绿带翠凤蝶</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虎斑蝶</t>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>subsp.</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Danaus genutia</t>
-    </r>
-  </si>
-  <si>
-    <t>虎斑蝶</t>
-  </si>
-  <si>
-    <t>又名拟阿檀蝶，分布于广东、广西、台湾等地。飞行速度比一般蝴蝶慢，幼虫以有毒的天星藤为食料，毒素积聚在蝴蝶体内。</t>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/虎斑蝶</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黒脉蛱蝶</t>
-    </r>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mono</t>
+    </r>
+  </si>
+  <si>
+    <t>色木槭</t>
+  </si>
+  <si>
+    <t>槭树科，槭属。落叶乔木。稍耐阴，深根性，喜湿润肥沃土壤，树皮可作人造棉，种子可榨油，也可食用。</t>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/色木槭</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Hestina assimilis</t>
-    </r>
-  </si>
-  <si>
-    <t>黒脉蛱蝶</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分布在中国、朝鲜和日本等地区。翅面淡灰绿色，翅脉黑褐色，每一翅室有灰绿色斑和灰黑色小点。后翅外缘有淡黑色月牙斑，翅展</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>93mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/黒脉蛱蝶</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>落叶松</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天堂凤蝶</t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Larix</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Papilio ulysses</t>
-    </r>
-  </si>
-  <si>
-    <t>天堂凤蝶</t>
-  </si>
-  <si>
-    <t>又名琉璃凤蝶、英雄凤蝶，为澳大利亚国蝶。四翅内侧二分之一为纯净的大蓝色，外侧二分之一为黑褐色，后翅有黑色的尾突。</t>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/天堂凤蝶</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美神闪蝶</t>
-    </r>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gmelinii</t>
+    </r>
+  </si>
+  <si>
+    <t>落叶松</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>松科，落叶松属。落叶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乔木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。东北三大针叶用材林树种之一。喜光、适应性强、耐低温寒冷。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>园林绿化树种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抗烟能力强。</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/落叶松</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Morpho anaxibia</t>
-    </r>
-  </si>
-  <si>
-    <t>美神闪蝶</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>仅分布于巴西。翅展</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14-16cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，色彩鲜艳，花纹相当复杂。幼虫一般群集生活，主要取食豆科植物。</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/美神闪蝶</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>樟子松</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白斑眼蝶</t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pinus</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Penthema adelma</t>
-    </r>
-  </si>
-  <si>
-    <t>白斑眼蝶</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分布于我国南方等省区。前翅正面亚外缘有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列小白点，内侧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列稍大；前缘中部斜向后角有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列大白斑，后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个最大，中室端也有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个大白斑；后翅正面亚外缘有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列白斑。</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprites/昆虫世界/白斑眼蝶</t>
-  </si>
-  <si>
-    <t>牡丹江流域植物资源</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>牡丹江流域</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地貌多变，形成了交错多样的自然景观，构成了森林、灌丛、湿地、草原、农田等多种生态系统，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>植物资源丰富，有被子植物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>余种，裸子植物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>种，蕨类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>余种，苔藓植物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>350</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>余种。其中包括药用植物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>余种，著名的地道药材有人参、五味子、龙胆、桔梗等；用材植物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>余种，如红松、臭冷杉、长白落叶松等珍贵的针叶树种及水曲柳、黄檗、胡桃楸等优良的阔叶树种。</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/牡丹江流域植物资源</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白桦</t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sylvestris</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Betula platyphylla</t>
-    </r>
-  </si>
-  <si>
-    <t>白桦</t>
-  </si>
-  <si>
-    <t>又称桦木，桦木科，桦木属。落叶乔木，树皮白色。喜光、不耐荫、耐严寒、耐瘠薄。树皮可提桦油；树汁可入药。</t>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/白桦</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>var.</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1310,7 +1959,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">蒙古栎 </t>
+      <t>　</t>
     </r>
     <r>
       <rPr>
@@ -1320,17 +1969,17 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Quercus mongolica</t>
-    </r>
-  </si>
-  <si>
-    <t>蒙古栎</t>
-  </si>
-  <si>
-    <t>又称柞树，壳斗科，栎属。落叶乔木。喜光、耐寒、耐干旱、抗腐、耐水湿。种子可酿酒；树皮可入药。</t>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/蒙古栎</t>
+      <t>mongolica</t>
+    </r>
+  </si>
+  <si>
+    <t>樟子松</t>
+  </si>
+  <si>
+    <t>松科，松属。常绿乔木。喜光、深根性、耐瘠薄、喜酸性土壤。树干可割树脂，树皮可提取拷胶。</t>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/樟子松</t>
   </si>
   <si>
     <r>
@@ -1340,7 +1989,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">色木槭 </t>
+      <t>水曲柳</t>
     </r>
     <r>
       <rPr>
@@ -1350,16 +1999,17 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Acer pictum</t>
+      <t>Fraxinus</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> subsp.</t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
     </r>
     <r>
       <rPr>
@@ -1369,233 +2019,181 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> mono</t>
-    </r>
-  </si>
-  <si>
-    <t>色木槭</t>
-  </si>
-  <si>
-    <t>槭树科，槭属。落叶乔木。稍耐阴，深根性，喜湿润肥沃土壤，树皮可作人造棉，种子可榨油，也可食用。</t>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/色木槭</t>
+      <t>mandschurica</t>
+    </r>
+  </si>
+  <si>
+    <t>水曲柳</t>
+  </si>
+  <si>
+    <t>木犀科，梣属。落叶乔木。与黄檗、胡桃楸并称“东北三大硬阔”。喜光、耐寒、喜肥、喜湿润。特种建筑材料。</t>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/水曲柳</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>落叶松</t>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山杨</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Populus</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Larix gmelinii</t>
-    </r>
-  </si>
-  <si>
-    <t>落叶松</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>松科，落叶松属。落叶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乔木</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。东北三大针叶用材林树种之一。喜光、适应性强、耐低温寒冷。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>园林绿化树种</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抗烟能力强。</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/落叶松</t>
-  </si>
-  <si>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>樟子松</t>
-    </r>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>davidiana</t>
+    </r>
+  </si>
+  <si>
+    <t>山杨</t>
+  </si>
+  <si>
+    <t>杨柳科，杨属。乔木或大乔木。耐湿、耐烟尘、抗污染。四旁绿化、水土固沙的主要树种之一，也是主要的造林树种。</t>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/山杨</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Pinus sylvestris </t>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旱柳</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>var.</t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hankow</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> mongolica</t>
-    </r>
-  </si>
-  <si>
-    <t>樟子松</t>
-  </si>
-  <si>
-    <t>松科，松属。常绿乔木。喜光、深根性、耐瘠薄、喜酸性土壤。树干可割树脂，树皮可提取拷胶。</t>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/樟子松</t>
-  </si>
-  <si>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">水曲柳 </t>
-    </r>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>willow</t>
+    </r>
+  </si>
+  <si>
+    <t>旱柳</t>
+  </si>
+  <si>
+    <t>又称柳，杨柳科，柳属。落叶乔木。喜光、耐寒、耐旱、生长快。常配植于池边湖岸；枝和须根能祛风除湿。</t>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/旱柳</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Fraxinus mandschurica</t>
-    </r>
-  </si>
-  <si>
-    <t>水曲柳</t>
-  </si>
-  <si>
-    <t>木犀科，梣属。落叶乔木。与黄檗、胡桃楸并称“东北三大硬阔”。喜光、耐寒、喜肥、喜湿润。特种建筑材料。</t>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/水曲柳</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>榆树</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">山杨 </t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ulmus</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Populus davidiana</t>
-    </r>
-  </si>
-  <si>
-    <t>山杨</t>
-  </si>
-  <si>
-    <t>杨柳科，杨属。乔木或大乔木。耐湿、耐烟尘、抗污染。四旁绿化、水土固沙的主要树种之一，也是主要的造林树种。</t>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/山杨</t>
-  </si>
-  <si>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>旱柳</t>
-    </r>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pumila</t>
+    </r>
+  </si>
+  <si>
+    <t>榆树</t>
+  </si>
+  <si>
+    <t>榆科，榆属。落叶乔木。喜光、耐寒、耐旱、耐修剪、抗污染，可作滨海盐碱地的造林树种。树皮可药用；叶可作饲料。</t>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/榆树</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红松</t>
     </r>
     <r>
       <rPr>
@@ -1605,27 +2203,17 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>hankow willow</t>
-    </r>
-  </si>
-  <si>
-    <t>旱柳</t>
-  </si>
-  <si>
-    <t>又称柳，杨柳科，柳属。落叶乔木。喜光、耐寒、耐旱、生长快。常配植于池边湖岸；枝和须根能祛风除湿。</t>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/旱柳</t>
-  </si>
-  <si>
+      <t>Pinus</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">榆树 </t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
     </r>
     <r>
       <rPr>
@@ -1635,17 +2223,17 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Ulmus pumila</t>
-    </r>
-  </si>
-  <si>
-    <t>榆树</t>
-  </si>
-  <si>
-    <t>榆科，榆属。落叶乔木。喜光、耐寒、耐旱、耐修剪、抗污染，可作滨海盐碱地的造林树种。树皮可药用；叶可作饲料。</t>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/榆树</t>
+      <t>koraiensis</t>
+    </r>
+  </si>
+  <si>
+    <t>红松</t>
+  </si>
+  <si>
+    <t>又称果松，松科，松属。常绿乔木。喜光，耐寒。种子，即松籽，可食用、药用。是水土保持、调节气候、防风固沙的最佳选择树种。</t>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/红松</t>
   </si>
   <si>
     <r>
@@ -1655,85 +2243,77 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>红松</t>
+      <t>红皮云杉</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Picea</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pinus koraiensis</t>
-    </r>
-  </si>
-  <si>
-    <t>红松</t>
-  </si>
-  <si>
-    <t>又称果松，松科，松属。常绿乔木。喜光，耐寒。种子，即松籽，可食用、药用。是水土保持、调节气候、防风固沙的最佳选择树种。</t>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/红松</t>
-  </si>
-  <si>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>红皮云杉</t>
-    </r>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>koraiensis</t>
+    </r>
+  </si>
+  <si>
+    <t>红皮云杉</t>
+  </si>
+  <si>
+    <t>松科，云杉属。常绿乔木，中国特有树种。耐全光、耐湿、耐寒，适应性强。树干可取树脂；树皮可提栲胶。</t>
+  </si>
+  <si>
+    <t>Sprites/牡丹江流域植物资源/红皮云杉</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Picea koraiensis</t>
-    </r>
-  </si>
-  <si>
-    <t>红皮云杉</t>
-  </si>
-  <si>
-    <t>松科，云杉属。常绿乔木，中国特有树种。耐全光、耐湿、耐寒，适应性强。树干可取树脂；树皮可提栲胶。</t>
-  </si>
-  <si>
-    <t>Sprites/牡丹江流域植物资源/红皮云杉</t>
-  </si>
-  <si>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>臭冷杉</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>臭</t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Abies</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">冷杉 </t>
+        <i/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
     </r>
     <r>
       <rPr>
@@ -1743,7 +2323,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Abies nephrolepis</t>
+      <t>nephrolepis</t>
     </r>
   </si>
   <si>
@@ -1762,16 +2342,34 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">白车轴草 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Trifolium repens</t>
+      <t>白车轴草</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Trifolium</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repens</t>
     </r>
   </si>
   <si>
@@ -3581,7 +4179,7 @@
     </r>
   </si>
   <si>
-    <t>Sprites/农作物/粟</t>
+    <t>Sprites/农作物/谷子</t>
   </si>
   <si>
     <t>水稻</t>
@@ -5212,7 +5810,7 @@
     </r>
   </si>
   <si>
-    <t>Sprites/农作物/光滑环锈伞</t>
+    <t>Sprites/农作物/滑菇</t>
   </si>
   <si>
     <r>
@@ -6104,7 +6702,7 @@
     </r>
   </si>
   <si>
-    <t>Sprites/农作物/松口蘑</t>
+    <t>Sprites/农作物/松茸</t>
   </si>
   <si>
     <r>
@@ -6288,7 +6886,7 @@
     <t>伞菌目，侧耳科。又称杏仁鲍鱼菇（台湾）、杏鲍菇，主要分布于中国的福建、上海、台湾（皆从欧洲引用），西部地区可能有野生分布。春末夏末生于伞形花科植物如刺芹的茎基、根部。可供食用。</t>
   </si>
   <si>
-    <t>Sprites/农作物/刺芹侧耳</t>
+    <t>Sprites/农作物/杏鲍菇</t>
   </si>
   <si>
     <r>
@@ -7265,7 +7863,7 @@
     </r>
   </si>
   <si>
-    <t>Sprites/稀树草原动物/短尾猴</t>
+    <t>Sprites/稀树草原动物/红面猴</t>
   </si>
   <si>
     <t>湿地动物</t>
@@ -21600,7 +22198,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="74">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -21871,6 +22469,13 @@
       <b/>
       <i/>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color rgb="FF252525"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -21884,23 +22489,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -21918,6 +22516,13 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -21928,6 +22533,14 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -21964,13 +22577,6 @@
     <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -22574,7 +23180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -22637,6 +23243,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" indent="2"/>
@@ -23103,15 +23712,15 @@
   <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.9583333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.475" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.05" style="2" customWidth="1"/>
     <col min="4" max="4" width="59.425" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.25" style="2" customWidth="1"/>
@@ -23197,7 +23806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="6" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -23214,7 +23823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="7" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -23299,7 +23908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:5">
+    <row r="12" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -23350,7 +23959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="15" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -23469,7 +24078,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="22" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -23486,7 +24095,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -23571,7 +24180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="56.25" spans="1:5">
+    <row r="28" s="1" customFormat="1" ht="37.5" spans="1:5">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -23605,7 +24214,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="56.25" spans="1:5">
+    <row r="30" s="1" customFormat="1" ht="37.5" spans="1:5">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -23741,11 +24350,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="38" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="21" t="s">
         <v>142</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -23758,7 +24367,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="39" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -23809,7 +24418,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="42" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -23826,7 +24435,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="43" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -23843,7 +24452,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="30" spans="1:5">
+    <row r="44" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -23860,7 +24469,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="45" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -23894,7 +24503,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="47" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -23911,7 +24520,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="48" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -23928,7 +24537,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="49" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -23962,7 +24571,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="51" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -23979,7 +24588,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="52" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -23996,7 +24605,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="53" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -24013,7 +24622,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="54" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -24030,7 +24639,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="55" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -24064,7 +24673,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="57" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -24098,7 +24707,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="59" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -24115,7 +24724,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="47.25" spans="1:5">
+    <row r="60" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -24132,7 +24741,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="61" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -24166,7 +24775,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="63" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -24183,7 +24792,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="64" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -24200,7 +24809,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="65" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -24217,7 +24826,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="66" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -24234,7 +24843,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="67" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -24268,7 +24877,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="69" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -24295,7 +24904,7 @@
       <c r="C70" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="22" t="s">
         <v>271</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -24346,7 +24955,7 @@
       <c r="C73" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="23" t="s">
         <v>282</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -24363,7 +24972,7 @@
       <c r="C74" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="24" t="s">
         <v>286</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -24442,20 +25051,20 @@
       <c r="A79" s="1">
         <v>75</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="25" t="s">
         <v>306</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="32.25" spans="1:5">
+    <row r="80" s="1" customFormat="1" ht="25.5" spans="1:5">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -24465,7 +25074,7 @@
       <c r="C80" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="26" t="s">
         <v>310</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -24482,14 +25091,14 @@
       <c r="C81" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="26" t="s">
         <v>314</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="50.25" spans="1:5">
+    <row r="82" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -24499,7 +25108,7 @@
       <c r="C82" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="26" t="s">
         <v>318</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -24516,7 +25125,7 @@
       <c r="C83" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="26" t="s">
         <v>322</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -24533,7 +25142,7 @@
       <c r="C84" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="27" t="s">
         <v>326</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -24550,14 +25159,14 @@
       <c r="C85" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="26" t="s">
         <v>330</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="59.25" spans="1:5">
+    <row r="86" s="1" customFormat="1" ht="45.75" spans="1:5">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -24567,14 +25176,14 @@
       <c r="C86" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="26" t="s">
         <v>334</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="32.25" spans="1:5">
+    <row r="87" s="1" customFormat="1" ht="25.5" spans="1:5">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -24584,14 +25193,14 @@
       <c r="C87" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="27" t="s">
         <v>338</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="32.25" spans="1:5">
+    <row r="88" s="1" customFormat="1" ht="25.5" spans="1:5">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -24601,7 +25210,7 @@
       <c r="C88" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="26" t="s">
         <v>342</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -24618,14 +25227,14 @@
       <c r="C89" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="D89" s="27" t="s">
         <v>346</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="32.25" spans="1:5">
+    <row r="90" s="1" customFormat="1" ht="25.5" spans="1:5">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -24635,7 +25244,7 @@
       <c r="C90" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="26" t="s">
         <v>350</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -24652,7 +25261,7 @@
       <c r="C91" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="26" t="s">
         <v>354</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -24669,7 +25278,7 @@
       <c r="C92" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="26" t="s">
         <v>358</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -24686,14 +25295,14 @@
       <c r="C93" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="D93" s="26" t="s">
+      <c r="D93" s="27" t="s">
         <v>362</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="32.25" spans="1:5">
+    <row r="94" s="1" customFormat="1" ht="25.5" spans="1:5">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -24703,7 +25312,7 @@
       <c r="C94" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="27" t="s">
         <v>366</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -24720,7 +25329,7 @@
       <c r="C95" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -24737,14 +25346,14 @@
       <c r="C96" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="26" t="s">
         <v>374</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="32.25" spans="1:5">
+    <row r="97" s="1" customFormat="1" ht="25.5" spans="1:5">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -24754,14 +25363,14 @@
       <c r="C97" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="26" t="s">
         <v>378</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="32.25" spans="1:5">
+    <row r="98" s="1" customFormat="1" ht="25.5" spans="1:5">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -24771,7 +25380,7 @@
       <c r="C98" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="26" t="s">
         <v>382</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -24788,14 +25397,14 @@
       <c r="C99" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="26" t="s">
         <v>386</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="32.25" spans="1:5">
+    <row r="100" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -24805,7 +25414,7 @@
       <c r="C100" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="26" t="s">
         <v>390</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -24822,7 +25431,7 @@
       <c r="C101" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="26" t="s">
         <v>394</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -24839,14 +25448,14 @@
       <c r="C102" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="D102" s="26" t="s">
+      <c r="D102" s="27" t="s">
         <v>398</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" ht="45.75" spans="1:5">
+    <row r="103" s="1" customFormat="1" ht="39" spans="1:5">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -24856,7 +25465,7 @@
       <c r="C103" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="D103" s="26" t="s">
+      <c r="D103" s="27" t="s">
         <v>402</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -24873,24 +25482,24 @@
       <c r="C104" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D104" s="27" t="s">
+      <c r="D104" s="28" t="s">
         <v>405</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="27" spans="1:5">
+    <row r="105" s="1" customFormat="1" ht="25.5" spans="1:5">
       <c r="A105" s="1">
         <v>101</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="D105" s="29" t="s">
+      <c r="D105" s="30" t="s">
         <v>409</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -24901,13 +25510,13 @@
       <c r="A106" s="1">
         <v>102</v>
       </c>
-      <c r="B106" s="28" t="s">
+      <c r="B106" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="D106" s="29" t="s">
+      <c r="D106" s="30" t="s">
         <v>413</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -24918,13 +25527,13 @@
       <c r="A107" s="1">
         <v>103</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="32" t="s">
         <v>417</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -24935,13 +25544,13 @@
       <c r="A108" s="1">
         <v>104</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C108" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="27" t="s">
         <v>421</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -24952,13 +25561,13 @@
       <c r="A109" s="1">
         <v>105</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D109" s="27" t="s">
         <v>425</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -24969,13 +25578,13 @@
       <c r="A110" s="1">
         <v>106</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="C110" s="32" t="s">
+      <c r="C110" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="D110" s="25" t="s">
+      <c r="D110" s="26" t="s">
         <v>429</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -24986,13 +25595,13 @@
       <c r="A111" s="1">
         <v>107</v>
       </c>
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="27" t="s">
         <v>433</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -25003,13 +25612,13 @@
       <c r="A112" s="1">
         <v>108</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="C112" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="26" t="s">
         <v>437</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -25026,14 +25635,14 @@
       <c r="C113" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="D113" s="33" t="s">
+      <c r="D113" s="34" t="s">
         <v>440</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="114" s="1" customFormat="1" ht="15.75" spans="1:5">
       <c r="A114" s="1">
         <v>110</v>
       </c>
@@ -25043,14 +25652,14 @@
       <c r="C114" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="35" t="s">
         <v>444</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="115" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A115" s="1">
         <v>111</v>
       </c>
@@ -25135,7 +25744,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="120" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A120" s="1">
         <v>116</v>
       </c>
@@ -25220,7 +25829,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" ht="31.5" spans="1:5">
+    <row r="125" s="1" customFormat="1" ht="28.5" spans="1:5">
       <c r="A125" s="1">
         <v>121</v>
       </c>
@@ -25258,10 +25867,10 @@
       <c r="A127" s="1">
         <v>123</v>
       </c>
-      <c r="B127" s="26" t="s">
+      <c r="B127" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="27" t="s">
         <v>494</v>
       </c>
       <c r="D127" s="11" t="s">
@@ -25292,10 +25901,10 @@
       <c r="A129" s="1">
         <v>125</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="27" t="s">
         <v>502</v>
       </c>
       <c r="D129" s="11" t="s">
@@ -25349,7 +25958,7 @@
       <c r="C132" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="27" t="s">
         <v>515</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -25360,10 +25969,10 @@
       <c r="A133" s="1">
         <v>129</v>
       </c>
-      <c r="B133" s="26" t="s">
+      <c r="B133" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="27" t="s">
         <v>518</v>
       </c>
       <c r="D133" s="11" t="s">
@@ -25400,7 +26009,7 @@
       <c r="C135" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="28" t="s">
         <v>526</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -25411,13 +26020,13 @@
       <c r="A136" s="1">
         <v>132</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="36" t="s">
         <v>528</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="36" t="s">
         <v>529</v>
       </c>
-      <c r="D136" s="26" t="s">
+      <c r="D136" s="27" t="s">
         <v>530</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -25428,13 +26037,13 @@
       <c r="A137" s="1">
         <v>133</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="D137" s="26" t="s">
+      <c r="D137" s="27" t="s">
         <v>534</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -25445,30 +26054,30 @@
       <c r="A138" s="1">
         <v>134</v>
       </c>
-      <c r="B138" s="35" t="s">
+      <c r="B138" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="D138" s="26" t="s">
+      <c r="D138" s="27" t="s">
         <v>538</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="139" s="1" customFormat="1" ht="47.25" spans="1:5">
+    <row r="139" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A139" s="1">
         <v>135</v>
       </c>
-      <c r="B139" s="36" t="s">
+      <c r="B139" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="C139" s="36" t="s">
+      <c r="C139" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="32" t="s">
         <v>542</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -25479,13 +26088,13 @@
       <c r="A140" s="1">
         <v>136</v>
       </c>
-      <c r="B140" s="37" t="s">
+      <c r="B140" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="C140" s="37" t="s">
+      <c r="C140" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="32" t="s">
         <v>546</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -25496,30 +26105,30 @@
       <c r="A141" s="1">
         <v>137</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C141" s="39" t="s">
         <v>549</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D141" s="27" t="s">
         <v>550</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="142" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A142" s="1">
         <v>138</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="C142" s="38" t="s">
+      <c r="C142" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D142" s="27" t="s">
         <v>554</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -25547,30 +26156,30 @@
       <c r="A144" s="1">
         <v>140</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="B144" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="C144" s="38" t="s">
+      <c r="C144" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="D144" s="25" t="s">
+      <c r="D144" s="26" t="s">
         <v>562</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="145" s="1" customFormat="1" ht="46.5" spans="1:5">
+    <row r="145" s="1" customFormat="1" ht="33" spans="1:5">
       <c r="A145" s="1">
         <v>141</v>
       </c>
-      <c r="B145" s="39" t="s">
+      <c r="B145" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="C145" s="39" t="s">
+      <c r="C145" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="27" t="s">
         <v>566</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -25581,30 +26190,30 @@
       <c r="A146" s="1">
         <v>142</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="B146" s="39" t="s">
         <v>568</v>
       </c>
-      <c r="C146" s="38" t="s">
+      <c r="C146" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="27" t="s">
         <v>570</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="147" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="147" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A147" s="1">
         <v>143</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B147" s="39" t="s">
         <v>572</v>
       </c>
-      <c r="C147" s="38" t="s">
+      <c r="C147" s="39" t="s">
         <v>573</v>
       </c>
-      <c r="D147" s="40" t="s">
+      <c r="D147" s="41" t="s">
         <v>574</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -25615,13 +26224,13 @@
       <c r="A148" s="1">
         <v>144</v>
       </c>
-      <c r="B148" s="38" t="s">
+      <c r="B148" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="C148" s="38" t="s">
+      <c r="C148" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="D148" s="31" t="s">
+      <c r="D148" s="32" t="s">
         <v>578</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -25632,13 +26241,13 @@
       <c r="A149" s="1">
         <v>145</v>
       </c>
-      <c r="B149" s="37" t="s">
+      <c r="B149" s="38" t="s">
         <v>580</v>
       </c>
-      <c r="C149" s="37" t="s">
+      <c r="C149" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="D149" s="26" t="s">
+      <c r="D149" s="27" t="s">
         <v>582</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -25649,47 +26258,47 @@
       <c r="A150" s="1">
         <v>146</v>
       </c>
-      <c r="B150" s="37" t="s">
+      <c r="B150" s="38" t="s">
         <v>584</v>
       </c>
-      <c r="C150" s="37" t="s">
+      <c r="C150" s="38" t="s">
         <v>585</v>
       </c>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="27" t="s">
         <v>586</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="151" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="151" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A151" s="1">
         <v>147</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" s="39" t="s">
         <v>588</v>
       </c>
-      <c r="C151" s="38" t="s">
+      <c r="C151" s="39" t="s">
         <v>589</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="D151" s="27" t="s">
         <v>590</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="152" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A152" s="1">
         <v>148</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="39" t="s">
         <v>592</v>
       </c>
-      <c r="C152" s="38" t="s">
+      <c r="C152" s="39" t="s">
         <v>593</v>
       </c>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="32" t="s">
         <v>594</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -25700,30 +26309,30 @@
       <c r="A153" s="1">
         <v>149</v>
       </c>
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="38" t="s">
         <v>596</v>
       </c>
-      <c r="C153" s="37" t="s">
+      <c r="C153" s="38" t="s">
         <v>597</v>
       </c>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="32" t="s">
         <v>598</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="154" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="154" s="1" customFormat="1" ht="39" spans="1:5">
       <c r="A154" s="1">
         <v>150</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="B154" s="39" t="s">
         <v>600</v>
       </c>
-      <c r="C154" s="38" t="s">
+      <c r="C154" s="39" t="s">
         <v>601</v>
       </c>
-      <c r="D154" s="25" t="s">
+      <c r="D154" s="26" t="s">
         <v>602</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -25734,13 +26343,13 @@
       <c r="A155" s="1">
         <v>151</v>
       </c>
-      <c r="B155" s="38" t="s">
+      <c r="B155" s="39" t="s">
         <v>604</v>
       </c>
-      <c r="C155" s="38" t="s">
+      <c r="C155" s="39" t="s">
         <v>605</v>
       </c>
-      <c r="D155" s="26" t="s">
+      <c r="D155" s="27" t="s">
         <v>606</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -25768,64 +26377,64 @@
       <c r="A157" s="1">
         <v>153</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" s="39" t="s">
         <v>611</v>
       </c>
-      <c r="C157" s="38" t="s">
+      <c r="C157" s="39" t="s">
         <v>612</v>
       </c>
-      <c r="D157" s="41" t="s">
+      <c r="D157" s="42" t="s">
         <v>613</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="158" s="1" customFormat="1" ht="56.25" spans="1:5">
+    <row r="158" s="1" customFormat="1" ht="37.5" spans="1:5">
       <c r="A158" s="1">
         <v>154</v>
       </c>
-      <c r="B158" s="42" t="s">
+      <c r="B158" s="43" t="s">
         <v>615</v>
       </c>
-      <c r="C158" s="42" t="s">
+      <c r="C158" s="43" t="s">
         <v>616</v>
       </c>
-      <c r="D158" s="25" t="s">
+      <c r="D158" s="26" t="s">
         <v>617</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="159" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="159" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A159" s="1">
         <v>155</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B159" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="C159" s="38" t="s">
+      <c r="C159" s="39" t="s">
         <v>620</v>
       </c>
-      <c r="D159" s="43" t="s">
+      <c r="D159" s="44" t="s">
         <v>621</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="160" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="160" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A160" s="1">
         <v>156</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="C160" s="38" t="s">
+      <c r="C160" s="39" t="s">
         <v>624</v>
       </c>
-      <c r="D160" s="25" t="s">
+      <c r="D160" s="26" t="s">
         <v>625</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -25836,115 +26445,115 @@
       <c r="A161" s="1">
         <v>157</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" s="39" t="s">
         <v>627</v>
       </c>
-      <c r="C161" s="38" t="s">
+      <c r="C161" s="39" t="s">
         <v>628</v>
       </c>
-      <c r="D161" s="40" t="s">
+      <c r="D161" s="41" t="s">
         <v>629</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="162" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A162" s="1">
         <v>158</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="39" t="s">
         <v>631</v>
       </c>
-      <c r="C162" s="38" t="s">
+      <c r="C162" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="D162" s="40" t="s">
+      <c r="D162" s="41" t="s">
         <v>633</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="163" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="163" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A163" s="1">
         <v>159</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" s="39" t="s">
         <v>635</v>
       </c>
-      <c r="C163" s="38" t="s">
+      <c r="C163" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="D163" s="41" t="s">
+      <c r="D163" s="42" t="s">
         <v>637</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="164" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="164" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A164" s="1">
         <v>160</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="39" t="s">
         <v>639</v>
       </c>
-      <c r="C164" s="38" t="s">
+      <c r="C164" s="39" t="s">
         <v>640</v>
       </c>
-      <c r="D164" s="41" t="s">
+      <c r="D164" s="42" t="s">
         <v>641</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="165" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="165" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A165" s="1">
         <v>161</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="39" t="s">
         <v>643</v>
       </c>
-      <c r="C165" s="38" t="s">
+      <c r="C165" s="39" t="s">
         <v>644</v>
       </c>
-      <c r="D165" s="40" t="s">
+      <c r="D165" s="41" t="s">
         <v>645</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="166" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="166" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A166" s="1">
         <v>162</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="C166" s="38" t="s">
+      <c r="C166" s="39" t="s">
         <v>648</v>
       </c>
-      <c r="D166" s="40" t="s">
+      <c r="D166" s="41" t="s">
         <v>649</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="167" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="167" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A167" s="1">
         <v>163</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" s="39" t="s">
         <v>651</v>
       </c>
-      <c r="C167" s="38" t="s">
+      <c r="C167" s="39" t="s">
         <v>652</v>
       </c>
-      <c r="D167" s="40" t="s">
+      <c r="D167" s="41" t="s">
         <v>653</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -25955,64 +26564,64 @@
       <c r="A168" s="1">
         <v>164</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="B168" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="C168" s="38" t="s">
+      <c r="C168" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="D168" s="41" t="s">
+      <c r="D168" s="42" t="s">
         <v>657</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="169" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="169" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A169" s="1">
         <v>165</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="C169" s="38" t="s">
+      <c r="C169" s="39" t="s">
         <v>660</v>
       </c>
-      <c r="D169" s="26" t="s">
+      <c r="D169" s="27" t="s">
         <v>661</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="170" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A170" s="1">
         <v>166</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="B170" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="C170" s="38" t="s">
+      <c r="C170" s="39" t="s">
         <v>664</v>
       </c>
-      <c r="D170" s="40" t="s">
+      <c r="D170" s="41" t="s">
         <v>665</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="171" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="171" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A171" s="1">
         <v>167</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" s="39" t="s">
         <v>667</v>
       </c>
-      <c r="C171" s="38" t="s">
+      <c r="C171" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="D171" s="41" t="s">
+      <c r="D171" s="42" t="s">
         <v>669</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -26023,64 +26632,64 @@
       <c r="A172" s="1">
         <v>168</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="B172" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="C172" s="38" t="s">
+      <c r="C172" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="D172" s="41" t="s">
+      <c r="D172" s="42" t="s">
         <v>673</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="173" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="173" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A173" s="1">
         <v>169</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="C173" s="38" t="s">
+      <c r="C173" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="D173" s="40" t="s">
+      <c r="D173" s="41" t="s">
         <v>677</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="174" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="174" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A174" s="1">
         <v>170</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="39" t="s">
         <v>679</v>
       </c>
-      <c r="C174" s="38" t="s">
+      <c r="C174" s="39" t="s">
         <v>680</v>
       </c>
-      <c r="D174" s="41" t="s">
+      <c r="D174" s="42" t="s">
         <v>681</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="175" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="175" s="1" customFormat="1" ht="39" spans="1:5">
       <c r="A175" s="1">
         <v>171</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B175" s="39" t="s">
         <v>683</v>
       </c>
-      <c r="C175" s="38" t="s">
+      <c r="C175" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="D175" s="26" t="s">
+      <c r="D175" s="27" t="s">
         <v>685</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -26108,30 +26717,30 @@
       <c r="A177" s="1">
         <v>173</v>
       </c>
-      <c r="B177" s="37" t="s">
+      <c r="B177" s="38" t="s">
         <v>690</v>
       </c>
-      <c r="C177" s="37" t="s">
+      <c r="C177" s="38" t="s">
         <v>691</v>
       </c>
-      <c r="D177" s="26" t="s">
+      <c r="D177" s="27" t="s">
         <v>692</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="178" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="178" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A178" s="1">
         <v>174</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B178" s="39" t="s">
         <v>694</v>
       </c>
-      <c r="C178" s="38" t="s">
+      <c r="C178" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="D178" s="40" t="s">
+      <c r="D178" s="41" t="s">
         <v>696</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -26142,30 +26751,30 @@
       <c r="A179" s="1">
         <v>175</v>
       </c>
-      <c r="B179" s="37" t="s">
+      <c r="B179" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="C179" s="37" t="s">
+      <c r="C179" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="D179" s="31" t="s">
+      <c r="D179" s="32" t="s">
         <v>700</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="180" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="180" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A180" s="1">
         <v>176</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="C180" s="38" t="s">
+      <c r="C180" s="39" t="s">
         <v>703</v>
       </c>
-      <c r="D180" s="31" t="s">
+      <c r="D180" s="32" t="s">
         <v>704</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -26176,13 +26785,13 @@
       <c r="A181" s="1">
         <v>177</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" s="39" t="s">
         <v>706</v>
       </c>
-      <c r="C181" s="38" t="s">
+      <c r="C181" s="39" t="s">
         <v>707</v>
       </c>
-      <c r="D181" s="41" t="s">
+      <c r="D181" s="42" t="s">
         <v>708</v>
       </c>
       <c r="E181" s="1" t="s">
@@ -26193,30 +26802,30 @@
       <c r="A182" s="1">
         <v>178</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="C182" s="38" t="s">
+      <c r="C182" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="D182" s="41" t="s">
+      <c r="D182" s="42" t="s">
         <v>712</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="183" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A183" s="1">
         <v>179</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="39" t="s">
         <v>714</v>
       </c>
-      <c r="C183" s="38" t="s">
+      <c r="C183" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="D183" s="26" t="s">
+      <c r="D183" s="27" t="s">
         <v>716</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -26227,30 +26836,30 @@
       <c r="A184" s="1">
         <v>180</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" s="39" t="s">
         <v>627</v>
       </c>
-      <c r="C184" s="38" t="s">
+      <c r="C184" s="39" t="s">
         <v>628</v>
       </c>
-      <c r="D184" s="40" t="s">
+      <c r="D184" s="41" t="s">
         <v>718</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="185" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="185" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A185" s="1">
         <v>181</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" s="39" t="s">
         <v>720</v>
       </c>
-      <c r="C185" s="38" t="s">
+      <c r="C185" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="D185" s="40" t="s">
+      <c r="D185" s="41" t="s">
         <v>722</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -26261,30 +26870,30 @@
       <c r="A186" s="1">
         <v>182</v>
       </c>
-      <c r="B186" s="37" t="s">
+      <c r="B186" s="38" t="s">
         <v>724</v>
       </c>
-      <c r="C186" s="37" t="s">
+      <c r="C186" s="38" t="s">
         <v>725</v>
       </c>
-      <c r="D186" s="31" t="s">
+      <c r="D186" s="32" t="s">
         <v>726</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="187" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="187" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A187" s="1">
         <v>183</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" s="39" t="s">
         <v>728</v>
       </c>
-      <c r="C187" s="38" t="s">
+      <c r="C187" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="D187" s="40" t="s">
+      <c r="D187" s="41" t="s">
         <v>730</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -26295,30 +26904,30 @@
       <c r="A188" s="1">
         <v>184</v>
       </c>
-      <c r="B188" s="37" t="s">
+      <c r="B188" s="38" t="s">
         <v>732</v>
       </c>
-      <c r="C188" s="37" t="s">
+      <c r="C188" s="38" t="s">
         <v>733</v>
       </c>
-      <c r="D188" s="26" t="s">
+      <c r="D188" s="27" t="s">
         <v>734</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="189" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="189" s="1" customFormat="1" ht="39" spans="1:5">
       <c r="A189" s="1">
         <v>185</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="39" t="s">
         <v>736</v>
       </c>
-      <c r="C189" s="38" t="s">
+      <c r="C189" s="39" t="s">
         <v>737</v>
       </c>
-      <c r="D189" s="40" t="s">
+      <c r="D189" s="41" t="s">
         <v>738</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -26329,13 +26938,13 @@
       <c r="A190" s="1">
         <v>186</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="39" t="s">
         <v>740</v>
       </c>
-      <c r="C190" s="38" t="s">
+      <c r="C190" s="39" t="s">
         <v>741</v>
       </c>
-      <c r="D190" s="26" t="s">
+      <c r="D190" s="27" t="s">
         <v>742</v>
       </c>
       <c r="E190" s="1" t="s">
@@ -26346,47 +26955,47 @@
       <c r="A191" s="1">
         <v>187</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="B191" s="39" t="s">
         <v>744</v>
       </c>
-      <c r="C191" s="38" t="s">
+      <c r="C191" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="D191" s="40" t="s">
+      <c r="D191" s="41" t="s">
         <v>746</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="192" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A192" s="1">
         <v>188</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" s="39" t="s">
         <v>748</v>
       </c>
-      <c r="C192" s="38" t="s">
+      <c r="C192" s="39" t="s">
         <v>749</v>
       </c>
-      <c r="D192" s="40" t="s">
+      <c r="D192" s="41" t="s">
         <v>750</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="193" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="193" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A193" s="1">
         <v>189</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" s="39" t="s">
         <v>752</v>
       </c>
-      <c r="C193" s="38" t="s">
+      <c r="C193" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="D193" s="40" t="s">
+      <c r="D193" s="41" t="s">
         <v>754</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -26397,30 +27006,30 @@
       <c r="A194" s="1">
         <v>190</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="39" t="s">
         <v>756</v>
       </c>
-      <c r="C194" s="38" t="s">
+      <c r="C194" s="39" t="s">
         <v>757</v>
       </c>
-      <c r="D194" s="31" t="s">
+      <c r="D194" s="32" t="s">
         <v>758</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="195" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="195" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A195" s="1">
         <v>191</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="39" t="s">
         <v>760</v>
       </c>
-      <c r="C195" s="38" t="s">
+      <c r="C195" s="39" t="s">
         <v>761</v>
       </c>
-      <c r="D195" s="40" t="s">
+      <c r="D195" s="41" t="s">
         <v>762</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -26431,13 +27040,13 @@
       <c r="A196" s="1">
         <v>192</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="C196" s="38" t="s">
+      <c r="C196" s="39" t="s">
         <v>765</v>
       </c>
-      <c r="D196" s="41" t="s">
+      <c r="D196" s="42" t="s">
         <v>766</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -26448,13 +27057,13 @@
       <c r="A197" s="1">
         <v>193</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="39" t="s">
         <v>768</v>
       </c>
-      <c r="C197" s="38" t="s">
+      <c r="C197" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="D197" s="40" t="s">
+      <c r="D197" s="41" t="s">
         <v>770</v>
       </c>
       <c r="E197" s="1" t="s">
@@ -26465,13 +27074,13 @@
       <c r="A198" s="1">
         <v>194</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="39" t="s">
         <v>772</v>
       </c>
-      <c r="C198" s="38" t="s">
+      <c r="C198" s="39" t="s">
         <v>773</v>
       </c>
-      <c r="D198" s="31" t="s">
+      <c r="D198" s="32" t="s">
         <v>774</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -26482,13 +27091,13 @@
       <c r="A199" s="1">
         <v>195</v>
       </c>
-      <c r="B199" s="37" t="s">
+      <c r="B199" s="38" t="s">
         <v>776</v>
       </c>
-      <c r="C199" s="37" t="s">
+      <c r="C199" s="38" t="s">
         <v>777</v>
       </c>
-      <c r="D199" s="26" t="s">
+      <c r="D199" s="27" t="s">
         <v>778</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -26499,30 +27108,30 @@
       <c r="A200" s="1">
         <v>196</v>
       </c>
-      <c r="B200" s="38" t="s">
+      <c r="B200" s="39" t="s">
         <v>780</v>
       </c>
-      <c r="C200" s="38" t="s">
+      <c r="C200" s="39" t="s">
         <v>781</v>
       </c>
-      <c r="D200" s="41" t="s">
+      <c r="D200" s="42" t="s">
         <v>782</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="201" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="201" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A201" s="1">
         <v>197</v>
       </c>
-      <c r="B201" s="38" t="s">
+      <c r="B201" s="39" t="s">
         <v>784</v>
       </c>
-      <c r="C201" s="38" t="s">
+      <c r="C201" s="39" t="s">
         <v>785</v>
       </c>
-      <c r="D201" s="31" t="s">
+      <c r="D201" s="32" t="s">
         <v>786</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -26533,13 +27142,13 @@
       <c r="A202" s="1">
         <v>198</v>
       </c>
-      <c r="B202" s="37" t="s">
+      <c r="B202" s="38" t="s">
         <v>788</v>
       </c>
-      <c r="C202" s="37" t="s">
+      <c r="C202" s="38" t="s">
         <v>789</v>
       </c>
-      <c r="D202" s="31" t="s">
+      <c r="D202" s="32" t="s">
         <v>790</v>
       </c>
       <c r="E202" s="1" t="s">
@@ -26550,47 +27159,47 @@
       <c r="A203" s="1">
         <v>199</v>
       </c>
-      <c r="B203" s="37" t="s">
+      <c r="B203" s="38" t="s">
         <v>792</v>
       </c>
-      <c r="C203" s="37" t="s">
+      <c r="C203" s="38" t="s">
         <v>793</v>
       </c>
-      <c r="D203" s="31" t="s">
+      <c r="D203" s="32" t="s">
         <v>794</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="204" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="204" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A204" s="1">
         <v>200</v>
       </c>
-      <c r="B204" s="38" t="s">
+      <c r="B204" s="39" t="s">
         <v>796</v>
       </c>
-      <c r="C204" s="38" t="s">
+      <c r="C204" s="39" t="s">
         <v>797</v>
       </c>
-      <c r="D204" s="41" t="s">
+      <c r="D204" s="42" t="s">
         <v>798</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="205" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="205" s="1" customFormat="1" ht="39" spans="1:5">
       <c r="A205" s="1">
         <v>201</v>
       </c>
-      <c r="B205" s="38" t="s">
+      <c r="B205" s="39" t="s">
         <v>800</v>
       </c>
-      <c r="C205" s="38" t="s">
+      <c r="C205" s="39" t="s">
         <v>801</v>
       </c>
-      <c r="D205" s="40" t="s">
+      <c r="D205" s="41" t="s">
         <v>802</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -26601,13 +27210,13 @@
       <c r="A206" s="1">
         <v>202</v>
       </c>
-      <c r="B206" s="37" t="s">
+      <c r="B206" s="38" t="s">
         <v>804</v>
       </c>
-      <c r="C206" s="37" t="s">
+      <c r="C206" s="38" t="s">
         <v>805</v>
       </c>
-      <c r="D206" s="26" t="s">
+      <c r="D206" s="27" t="s">
         <v>806</v>
       </c>
       <c r="E206" s="1" t="s">
@@ -26618,47 +27227,47 @@
       <c r="A207" s="1">
         <v>203</v>
       </c>
-      <c r="B207" s="37" t="s">
+      <c r="B207" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="C207" s="37" t="s">
+      <c r="C207" s="38" t="s">
         <v>809</v>
       </c>
-      <c r="D207" s="25" t="s">
+      <c r="D207" s="26" t="s">
         <v>810</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="208" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="208" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A208" s="1">
         <v>204</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" s="39" t="s">
         <v>812</v>
       </c>
-      <c r="C208" s="38" t="s">
+      <c r="C208" s="39" t="s">
         <v>813</v>
       </c>
-      <c r="D208" s="44" t="s">
+      <c r="D208" s="45" t="s">
         <v>814</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="209" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="209" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A209" s="1">
         <v>205</v>
       </c>
-      <c r="B209" s="38" t="s">
+      <c r="B209" s="39" t="s">
         <v>816</v>
       </c>
-      <c r="C209" s="38" t="s">
+      <c r="C209" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="D209" s="41" t="s">
+      <c r="D209" s="42" t="s">
         <v>818</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -26669,30 +27278,30 @@
       <c r="A210" s="1">
         <v>206</v>
       </c>
-      <c r="B210" s="37" t="s">
+      <c r="B210" s="38" t="s">
         <v>820</v>
       </c>
-      <c r="C210" s="37" t="s">
+      <c r="C210" s="38" t="s">
         <v>821</v>
       </c>
-      <c r="D210" s="31" t="s">
+      <c r="D210" s="32" t="s">
         <v>822</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="211" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="211" s="1" customFormat="1" ht="39" spans="1:5">
       <c r="A211" s="1">
         <v>207</v>
       </c>
-      <c r="B211" s="38" t="s">
+      <c r="B211" s="39" t="s">
         <v>824</v>
       </c>
-      <c r="C211" s="38" t="s">
+      <c r="C211" s="39" t="s">
         <v>825</v>
       </c>
-      <c r="D211" s="40" t="s">
+      <c r="D211" s="41" t="s">
         <v>826</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -26703,13 +27312,13 @@
       <c r="A212" s="1">
         <v>208</v>
       </c>
-      <c r="B212" s="37" t="s">
+      <c r="B212" s="38" t="s">
         <v>828</v>
       </c>
-      <c r="C212" s="37" t="s">
+      <c r="C212" s="38" t="s">
         <v>829</v>
       </c>
-      <c r="D212" s="26" t="s">
+      <c r="D212" s="27" t="s">
         <v>830</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -26720,13 +27329,13 @@
       <c r="A213" s="1">
         <v>209</v>
       </c>
-      <c r="B213" s="38" t="s">
+      <c r="B213" s="39" t="s">
         <v>832</v>
       </c>
-      <c r="C213" s="38" t="s">
+      <c r="C213" s="39" t="s">
         <v>833</v>
       </c>
-      <c r="D213" s="41" t="s">
+      <c r="D213" s="42" t="s">
         <v>834</v>
       </c>
       <c r="E213" s="1" t="s">
@@ -26737,13 +27346,13 @@
       <c r="A214" s="1">
         <v>210</v>
       </c>
-      <c r="B214" s="38" t="s">
+      <c r="B214" s="39" t="s">
         <v>836</v>
       </c>
-      <c r="C214" s="38" t="s">
+      <c r="C214" s="39" t="s">
         <v>837</v>
       </c>
-      <c r="D214" s="41" t="s">
+      <c r="D214" s="42" t="s">
         <v>838</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -26754,30 +27363,30 @@
       <c r="A215" s="1">
         <v>211</v>
       </c>
-      <c r="B215" s="37" t="s">
+      <c r="B215" s="38" t="s">
         <v>840</v>
       </c>
-      <c r="C215" s="37" t="s">
+      <c r="C215" s="38" t="s">
         <v>841</v>
       </c>
-      <c r="D215" s="31" t="s">
+      <c r="D215" s="32" t="s">
         <v>842</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="216" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="216" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A216" s="1">
         <v>212</v>
       </c>
-      <c r="B216" s="38" t="s">
+      <c r="B216" s="39" t="s">
         <v>844</v>
       </c>
-      <c r="C216" s="38" t="s">
+      <c r="C216" s="39" t="s">
         <v>845</v>
       </c>
-      <c r="D216" s="41" t="s">
+      <c r="D216" s="42" t="s">
         <v>846</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -26788,30 +27397,30 @@
       <c r="A217" s="1">
         <v>213</v>
       </c>
-      <c r="B217" s="38" t="s">
+      <c r="B217" s="39" t="s">
         <v>848</v>
       </c>
-      <c r="C217" s="38" t="s">
+      <c r="C217" s="39" t="s">
         <v>849</v>
       </c>
-      <c r="D217" s="41" t="s">
+      <c r="D217" s="42" t="s">
         <v>850</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="218" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="218" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A218" s="1">
         <v>214</v>
       </c>
-      <c r="B218" s="38" t="s">
+      <c r="B218" s="39" t="s">
         <v>852</v>
       </c>
-      <c r="C218" s="38" t="s">
+      <c r="C218" s="39" t="s">
         <v>853</v>
       </c>
-      <c r="D218" s="41" t="s">
+      <c r="D218" s="42" t="s">
         <v>854</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -26822,13 +27431,13 @@
       <c r="A219" s="1">
         <v>215</v>
       </c>
-      <c r="B219" s="38" t="s">
+      <c r="B219" s="39" t="s">
         <v>856</v>
       </c>
-      <c r="C219" s="38" t="s">
+      <c r="C219" s="39" t="s">
         <v>857</v>
       </c>
-      <c r="D219" s="41" t="s">
+      <c r="D219" s="42" t="s">
         <v>858</v>
       </c>
       <c r="E219" s="1" t="s">
@@ -26839,13 +27448,13 @@
       <c r="A220" s="1">
         <v>216</v>
       </c>
-      <c r="B220" s="38" t="s">
+      <c r="B220" s="39" t="s">
         <v>860</v>
       </c>
-      <c r="C220" s="38" t="s">
+      <c r="C220" s="39" t="s">
         <v>861</v>
       </c>
-      <c r="D220" s="40" t="s">
+      <c r="D220" s="41" t="s">
         <v>862</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -26856,13 +27465,13 @@
       <c r="A221" s="1">
         <v>217</v>
       </c>
-      <c r="B221" s="38" t="s">
+      <c r="B221" s="39" t="s">
         <v>864</v>
       </c>
-      <c r="C221" s="38" t="s">
+      <c r="C221" s="39" t="s">
         <v>865</v>
       </c>
-      <c r="D221" s="40" t="s">
+      <c r="D221" s="41" t="s">
         <v>866</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -26873,13 +27482,13 @@
       <c r="A222" s="1">
         <v>218</v>
       </c>
-      <c r="B222" s="38" t="s">
+      <c r="B222" s="39" t="s">
         <v>868</v>
       </c>
-      <c r="C222" s="38" t="s">
+      <c r="C222" s="39" t="s">
         <v>869</v>
       </c>
-      <c r="D222" s="41" t="s">
+      <c r="D222" s="42" t="s">
         <v>870</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -26890,13 +27499,13 @@
       <c r="A223" s="1">
         <v>219</v>
       </c>
-      <c r="B223" s="38" t="s">
+      <c r="B223" s="39" t="s">
         <v>872</v>
       </c>
-      <c r="C223" s="38" t="s">
+      <c r="C223" s="39" t="s">
         <v>873</v>
       </c>
-      <c r="D223" s="40" t="s">
+      <c r="D223" s="41" t="s">
         <v>874</v>
       </c>
       <c r="E223" s="1" t="s">
@@ -26907,30 +27516,30 @@
       <c r="A224" s="1">
         <v>220</v>
       </c>
-      <c r="B224" s="37" t="s">
+      <c r="B224" s="38" t="s">
         <v>876</v>
       </c>
-      <c r="C224" s="37" t="s">
+      <c r="C224" s="38" t="s">
         <v>877</v>
       </c>
-      <c r="D224" s="26" t="s">
+      <c r="D224" s="27" t="s">
         <v>878</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="225" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="225" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A225" s="1">
         <v>221</v>
       </c>
-      <c r="B225" s="38" t="s">
+      <c r="B225" s="39" t="s">
         <v>880</v>
       </c>
-      <c r="C225" s="38" t="s">
+      <c r="C225" s="39" t="s">
         <v>881</v>
       </c>
-      <c r="D225" s="41" t="s">
+      <c r="D225" s="42" t="s">
         <v>882</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -26941,13 +27550,13 @@
       <c r="A226" s="1">
         <v>222</v>
       </c>
-      <c r="B226" s="37" t="s">
+      <c r="B226" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="C226" s="37" t="s">
+      <c r="C226" s="38" t="s">
         <v>885</v>
       </c>
-      <c r="D226" s="31" t="s">
+      <c r="D226" s="32" t="s">
         <v>886</v>
       </c>
       <c r="E226" s="1" t="s">
@@ -26958,13 +27567,13 @@
       <c r="A227" s="1">
         <v>223</v>
       </c>
-      <c r="B227" s="37" t="s">
+      <c r="B227" s="38" t="s">
         <v>888</v>
       </c>
-      <c r="C227" s="37" t="s">
+      <c r="C227" s="38" t="s">
         <v>889</v>
       </c>
-      <c r="D227" s="31" t="s">
+      <c r="D227" s="32" t="s">
         <v>890</v>
       </c>
       <c r="E227" s="1" t="s">
@@ -26975,13 +27584,13 @@
       <c r="A228" s="1">
         <v>224</v>
       </c>
-      <c r="B228" s="38" t="s">
+      <c r="B228" s="39" t="s">
         <v>892</v>
       </c>
-      <c r="C228" s="38" t="s">
+      <c r="C228" s="39" t="s">
         <v>893</v>
       </c>
-      <c r="D228" s="41" t="s">
+      <c r="D228" s="42" t="s">
         <v>894</v>
       </c>
       <c r="E228" s="1" t="s">
@@ -26992,30 +27601,30 @@
       <c r="A229" s="1">
         <v>225</v>
       </c>
-      <c r="B229" s="38" t="s">
+      <c r="B229" s="39" t="s">
         <v>896</v>
       </c>
-      <c r="C229" s="38" t="s">
+      <c r="C229" s="39" t="s">
         <v>897</v>
       </c>
-      <c r="D229" s="40" t="s">
+      <c r="D229" s="41" t="s">
         <v>898</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="230" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="230" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A230" s="1">
         <v>226</v>
       </c>
-      <c r="B230" s="38" t="s">
+      <c r="B230" s="39" t="s">
         <v>900</v>
       </c>
-      <c r="C230" s="38" t="s">
+      <c r="C230" s="39" t="s">
         <v>901</v>
       </c>
-      <c r="D230" s="41" t="s">
+      <c r="D230" s="42" t="s">
         <v>902</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -27026,30 +27635,30 @@
       <c r="A231" s="1">
         <v>227</v>
       </c>
-      <c r="B231" s="37" t="s">
+      <c r="B231" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="C231" s="37" t="s">
+      <c r="C231" s="38" t="s">
         <v>905</v>
       </c>
-      <c r="D231" s="26" t="s">
+      <c r="D231" s="27" t="s">
         <v>906</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="232" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="232" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A232" s="1">
         <v>228</v>
       </c>
-      <c r="B232" s="38" t="s">
+      <c r="B232" s="39" t="s">
         <v>908</v>
       </c>
-      <c r="C232" s="38" t="s">
+      <c r="C232" s="39" t="s">
         <v>909</v>
       </c>
-      <c r="D232" s="31" t="s">
+      <c r="D232" s="32" t="s">
         <v>910</v>
       </c>
       <c r="E232" s="1" t="s">
@@ -27060,30 +27669,30 @@
       <c r="A233" s="1">
         <v>229</v>
       </c>
-      <c r="B233" s="37" t="s">
+      <c r="B233" s="38" t="s">
         <v>912</v>
       </c>
-      <c r="C233" s="37" t="s">
+      <c r="C233" s="38" t="s">
         <v>913</v>
       </c>
-      <c r="D233" s="31" t="s">
+      <c r="D233" s="32" t="s">
         <v>914</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="234" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="234" s="1" customFormat="1" ht="38.25" spans="1:5">
       <c r="A234" s="1">
         <v>230</v>
       </c>
-      <c r="B234" s="38" t="s">
+      <c r="B234" s="39" t="s">
         <v>916</v>
       </c>
-      <c r="C234" s="38" t="s">
+      <c r="C234" s="39" t="s">
         <v>917</v>
       </c>
-      <c r="D234" s="26" t="s">
+      <c r="D234" s="27" t="s">
         <v>918</v>
       </c>
       <c r="E234" s="1" t="s">
@@ -27094,13 +27703,13 @@
       <c r="A235" s="1">
         <v>231</v>
       </c>
-      <c r="B235" s="38" t="s">
+      <c r="B235" s="39" t="s">
         <v>920</v>
       </c>
-      <c r="C235" s="38" t="s">
+      <c r="C235" s="39" t="s">
         <v>921</v>
       </c>
-      <c r="D235" s="26" t="s">
+      <c r="D235" s="27" t="s">
         <v>922</v>
       </c>
       <c r="E235" s="1" t="s">

--- a/Assets/Resources/ExcelData/Excel/MainData.xlsx
+++ b/Assets/Resources/ExcelData/Excel/MainData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="928">
   <si>
     <t>多语言配表</t>
   </si>
@@ -46,6 +46,9 @@
     <t>图片路径</t>
   </si>
   <si>
+    <t>语音路径</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>SpritePath</t>
+  </si>
+  <si>
+    <t>SoundPath</t>
   </si>
   <si>
     <t>昆虫世界</t>
@@ -77,6 +83,9 @@
     <t>Sprites/昆虫世界/昆虫世界</t>
   </si>
   <si>
+    <t>配音/15</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1598,6 +1607,9 @@
   </si>
   <si>
     <t>Sprites/牡丹江流域植物资源/牡丹江流域植物资源</t>
+  </si>
+  <si>
+    <t>配音/14</t>
   </si>
   <si>
     <r>
@@ -23709,15 +23721,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.2" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.475" style="2" customWidth="1"/>
@@ -23738,7 +23750,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -23754,56 +23766,68 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="150" spans="1:5">
+    <row r="5" s="1" customFormat="1" ht="150" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -23811,16 +23835,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -23828,16 +23852,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="31.5" spans="1:5">
@@ -23845,16 +23869,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="44.25" spans="1:5">
@@ -23862,16 +23886,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="42.75" spans="1:5">
@@ -23879,16 +23903,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="42.75" spans="1:5">
@@ -23896,16 +23920,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -23913,16 +23937,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="44.25" spans="1:5">
@@ -23930,16 +23954,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -23947,16 +23971,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="30" spans="1:5">
@@ -23964,16 +23988,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="58.5" spans="1:5">
@@ -23981,16 +24005,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="44.25" spans="1:5">
@@ -23998,16 +24022,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="57" spans="1:5">
@@ -24015,16 +24039,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="57" spans="1:5">
@@ -24032,16 +24056,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24049,16 +24073,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="44.25" spans="1:5">
@@ -24066,16 +24090,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24083,16 +24107,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="30" spans="1:5">
@@ -24100,16 +24124,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="47.25" spans="1:5">
@@ -24117,33 +24141,36 @@
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="90" spans="1:5">
+    <row r="25" s="1" customFormat="1" ht="90" spans="1:6">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="56.25" spans="1:5">
@@ -24151,16 +24178,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="37.5" spans="1:5">
@@ -24168,16 +24195,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="37.5" spans="1:5">
@@ -24185,16 +24212,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="56.25" spans="1:5">
@@ -24202,16 +24229,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="37.5" spans="1:5">
@@ -24219,16 +24246,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="56.25" spans="1:5">
@@ -24236,16 +24263,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="56.25" spans="1:5">
@@ -24253,16 +24280,16 @@
         <v>28</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="37.5" spans="1:5">
@@ -24270,16 +24297,16 @@
         <v>29</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="56.25" spans="1:5">
@@ -24287,16 +24314,16 @@
         <v>30</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="56.25" spans="1:5">
@@ -24304,16 +24331,16 @@
         <v>31</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="37.5" spans="1:5">
@@ -24321,16 +24348,16 @@
         <v>32</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="56.25" spans="1:5">
@@ -24338,16 +24365,16 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24355,16 +24382,16 @@
         <v>34</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24372,16 +24399,16 @@
         <v>35</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24389,16 +24416,16 @@
         <v>36</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24406,16 +24433,16 @@
         <v>37</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24423,16 +24450,16 @@
         <v>38</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24440,16 +24467,16 @@
         <v>39</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24457,16 +24484,16 @@
         <v>40</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24474,16 +24501,16 @@
         <v>41</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:5">
@@ -24491,16 +24518,16 @@
         <v>42</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24508,16 +24535,16 @@
         <v>43</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24525,16 +24552,16 @@
         <v>44</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24542,16 +24569,16 @@
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24559,16 +24586,16 @@
         <v>46</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24576,16 +24603,16 @@
         <v>47</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24593,16 +24620,16 @@
         <v>48</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24610,16 +24637,16 @@
         <v>49</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24627,16 +24654,16 @@
         <v>50</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24644,16 +24671,16 @@
         <v>51</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24661,16 +24688,16 @@
         <v>52</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24678,16 +24705,16 @@
         <v>53</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24695,16 +24722,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24712,16 +24739,16 @@
         <v>55</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24729,16 +24756,16 @@
         <v>56</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24746,16 +24773,16 @@
         <v>57</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24763,16 +24790,16 @@
         <v>58</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24780,16 +24807,16 @@
         <v>59</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24797,16 +24824,16 @@
         <v>60</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24814,16 +24841,16 @@
         <v>61</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24831,16 +24858,16 @@
         <v>62</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -24848,16 +24875,16 @@
         <v>63</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24865,16 +24892,16 @@
         <v>64</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -24882,16 +24909,16 @@
         <v>65</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="150" spans="1:5">
@@ -24899,16 +24926,16 @@
         <v>66</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="112.5" spans="1:5">
@@ -24916,16 +24943,16 @@
         <v>67</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="112.5" spans="1:5">
@@ -24933,16 +24960,16 @@
         <v>68</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="75" spans="1:5">
@@ -24950,16 +24977,16 @@
         <v>69</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="93.75" spans="1:5">
@@ -24967,16 +24994,16 @@
         <v>70</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="112.5" spans="1:5">
@@ -24984,16 +25011,16 @@
         <v>71</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="72.75" spans="1:5">
@@ -25001,16 +25028,16 @@
         <v>72</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="93.75" spans="1:5">
@@ -25018,16 +25045,16 @@
         <v>73</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="75" spans="1:5">
@@ -25035,16 +25062,16 @@
         <v>74</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="112.5" spans="1:5">
@@ -25052,16 +25079,16 @@
         <v>75</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25069,16 +25096,16 @@
         <v>76</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25086,16 +25113,16 @@
         <v>77</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25103,16 +25130,16 @@
         <v>78</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25120,16 +25147,16 @@
         <v>79</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25137,16 +25164,16 @@
         <v>80</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25154,16 +25181,16 @@
         <v>81</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="45.75" spans="1:5">
@@ -25171,16 +25198,16 @@
         <v>82</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25188,16 +25215,16 @@
         <v>83</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25205,16 +25232,16 @@
         <v>84</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25222,16 +25249,16 @@
         <v>85</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25239,16 +25266,16 @@
         <v>86</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25256,16 +25283,16 @@
         <v>87</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25273,16 +25300,16 @@
         <v>88</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25290,16 +25317,16 @@
         <v>89</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25307,16 +25334,16 @@
         <v>90</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25324,16 +25351,16 @@
         <v>91</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" ht="51" spans="1:5">
@@ -25341,16 +25368,16 @@
         <v>92</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25358,16 +25385,16 @@
         <v>93</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25375,16 +25402,16 @@
         <v>94</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25392,16 +25419,16 @@
         <v>95</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="18.75" spans="1:5">
@@ -25409,16 +25436,16 @@
         <v>96</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25426,16 +25453,16 @@
         <v>97</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25443,16 +25470,16 @@
         <v>98</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" ht="39" spans="1:5">
@@ -25460,16 +25487,16 @@
         <v>99</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" ht="202.5" spans="1:5">
@@ -25477,16 +25504,16 @@
         <v>100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25494,16 +25521,16 @@
         <v>101</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25511,16 +25538,16 @@
         <v>102</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25528,16 +25555,16 @@
         <v>103</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25545,16 +25572,16 @@
         <v>104</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25562,16 +25589,16 @@
         <v>105</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25579,16 +25606,16 @@
         <v>106</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25596,16 +25623,16 @@
         <v>107</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" ht="39" spans="1:5">
@@ -25613,16 +25640,16 @@
         <v>108</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" ht="182.25" spans="1:5">
@@ -25630,16 +25657,16 @@
         <v>109</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -25647,16 +25674,16 @@
         <v>110</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25664,16 +25691,16 @@
         <v>111</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25681,16 +25708,16 @@
         <v>112</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25698,16 +25725,16 @@
         <v>113</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25715,16 +25742,16 @@
         <v>114</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25732,16 +25759,16 @@
         <v>115</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25749,16 +25776,16 @@
         <v>116</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -25766,16 +25793,16 @@
         <v>117</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25783,16 +25810,16 @@
         <v>118</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25800,16 +25827,16 @@
         <v>119</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25817,16 +25844,16 @@
         <v>120</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25834,16 +25861,16 @@
         <v>121</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25851,16 +25878,16 @@
         <v>122</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25868,16 +25895,16 @@
         <v>123</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25885,16 +25912,16 @@
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25902,16 +25929,16 @@
         <v>125</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25919,16 +25946,16 @@
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25936,16 +25963,16 @@
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25953,16 +25980,16 @@
         <v>128</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25970,16 +25997,16 @@
         <v>129</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -25987,16 +26014,16 @@
         <v>130</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" ht="222.75" spans="1:5">
@@ -26004,16 +26031,16 @@
         <v>131</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="1" ht="33.75" spans="1:5">
@@ -26021,16 +26048,16 @@
         <v>132</v>
       </c>
       <c r="B136" s="36" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26038,16 +26065,16 @@
         <v>133</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="1" ht="33.75" spans="1:5">
@@ -26055,16 +26082,16 @@
         <v>134</v>
       </c>
       <c r="B138" s="36" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D138" s="27" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26072,16 +26099,16 @@
         <v>135</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26089,16 +26116,16 @@
         <v>136</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26106,16 +26133,16 @@
         <v>137</v>
       </c>
       <c r="B141" s="39" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C141" s="39" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26123,16 +26150,16 @@
         <v>138</v>
       </c>
       <c r="B142" s="39" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C142" s="39" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" ht="42.75" spans="1:5">
@@ -26140,16 +26167,16 @@
         <v>139</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" ht="39.75" spans="1:5">
@@ -26157,16 +26184,16 @@
         <v>140</v>
       </c>
       <c r="B144" s="39" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C144" s="39" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" ht="33" spans="1:5">
@@ -26174,16 +26201,16 @@
         <v>141</v>
       </c>
       <c r="B145" s="40" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26191,16 +26218,16 @@
         <v>142</v>
       </c>
       <c r="B146" s="39" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C146" s="39" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26208,16 +26235,16 @@
         <v>143</v>
       </c>
       <c r="B147" s="39" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C147" s="39" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D147" s="41" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="1" ht="39" spans="1:5">
@@ -26225,16 +26252,16 @@
         <v>144</v>
       </c>
       <c r="B148" s="39" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C148" s="39" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26242,16 +26269,16 @@
         <v>145</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26259,16 +26286,16 @@
         <v>146</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C150" s="38" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26276,16 +26303,16 @@
         <v>147</v>
       </c>
       <c r="B151" s="39" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26293,16 +26320,16 @@
         <v>148</v>
       </c>
       <c r="B152" s="39" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D152" s="32" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26310,16 +26337,16 @@
         <v>149</v>
       </c>
       <c r="B153" s="38" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D153" s="32" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" ht="39" spans="1:5">
@@ -26327,16 +26354,16 @@
         <v>150</v>
       </c>
       <c r="B154" s="39" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C154" s="39" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26344,16 +26371,16 @@
         <v>151</v>
       </c>
       <c r="B155" s="39" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C155" s="39" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="1" ht="112.5" spans="1:5">
@@ -26361,16 +26388,16 @@
         <v>152</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="1" ht="54" spans="1:5">
@@ -26378,16 +26405,16 @@
         <v>153</v>
       </c>
       <c r="B157" s="39" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C157" s="39" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D157" s="42" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="1" ht="37.5" spans="1:5">
@@ -26395,16 +26422,16 @@
         <v>154</v>
       </c>
       <c r="B158" s="43" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C158" s="43" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26412,16 +26439,16 @@
         <v>155</v>
       </c>
       <c r="B159" s="39" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C159" s="39" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D159" s="44" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26429,16 +26456,16 @@
         <v>156</v>
       </c>
       <c r="B160" s="39" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C160" s="39" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26446,16 +26473,16 @@
         <v>157</v>
       </c>
       <c r="B161" s="39" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C161" s="39" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D161" s="41" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26463,16 +26490,16 @@
         <v>158</v>
       </c>
       <c r="B162" s="39" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C162" s="39" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D162" s="41" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26480,16 +26507,16 @@
         <v>159</v>
       </c>
       <c r="B163" s="39" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C163" s="39" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26497,16 +26524,16 @@
         <v>160</v>
       </c>
       <c r="B164" s="39" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C164" s="39" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26514,16 +26541,16 @@
         <v>161</v>
       </c>
       <c r="B165" s="39" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C165" s="39" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D165" s="41" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26531,16 +26558,16 @@
         <v>162</v>
       </c>
       <c r="B166" s="39" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C166" s="39" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D166" s="41" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26548,16 +26575,16 @@
         <v>163</v>
       </c>
       <c r="B167" s="39" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C167" s="39" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D167" s="41" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26565,16 +26592,16 @@
         <v>164</v>
       </c>
       <c r="B168" s="39" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C168" s="39" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D168" s="42" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26582,16 +26609,16 @@
         <v>165</v>
       </c>
       <c r="B169" s="39" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C169" s="39" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26599,16 +26626,16 @@
         <v>166</v>
       </c>
       <c r="B170" s="39" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C170" s="39" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D170" s="41" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26616,16 +26643,16 @@
         <v>167</v>
       </c>
       <c r="B171" s="39" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C171" s="39" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" ht="39.75" spans="1:5">
@@ -26633,16 +26660,16 @@
         <v>168</v>
       </c>
       <c r="B172" s="39" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C172" s="39" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D172" s="42" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26650,16 +26677,16 @@
         <v>169</v>
       </c>
       <c r="B173" s="39" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C173" s="39" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D173" s="41" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26667,16 +26694,16 @@
         <v>170</v>
       </c>
       <c r="B174" s="39" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="1" ht="39" spans="1:5">
@@ -26684,16 +26711,16 @@
         <v>171</v>
       </c>
       <c r="B175" s="39" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C175" s="39" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D175" s="27" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="1" ht="131.25" spans="1:5">
@@ -26701,16 +26728,16 @@
         <v>172</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26718,16 +26745,16 @@
         <v>173</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26735,16 +26762,16 @@
         <v>174</v>
       </c>
       <c r="B178" s="39" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C178" s="39" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D178" s="41" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26752,16 +26779,16 @@
         <v>175</v>
       </c>
       <c r="B179" s="38" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D179" s="32" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26769,16 +26796,16 @@
         <v>176</v>
       </c>
       <c r="B180" s="39" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C180" s="39" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D180" s="32" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26786,16 +26813,16 @@
         <v>177</v>
       </c>
       <c r="B181" s="39" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C181" s="39" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D181" s="42" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" ht="51" spans="1:5">
@@ -26803,16 +26830,16 @@
         <v>178</v>
       </c>
       <c r="B182" s="39" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C182" s="39" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D182" s="42" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26820,16 +26847,16 @@
         <v>179</v>
       </c>
       <c r="B183" s="39" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C183" s="39" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26837,16 +26864,16 @@
         <v>180</v>
       </c>
       <c r="B184" s="39" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C184" s="39" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D184" s="41" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26854,16 +26881,16 @@
         <v>181</v>
       </c>
       <c r="B185" s="39" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C185" s="39" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="D185" s="41" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26871,16 +26898,16 @@
         <v>182</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26888,16 +26915,16 @@
         <v>183</v>
       </c>
       <c r="B187" s="39" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C187" s="39" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D187" s="41" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26905,16 +26932,16 @@
         <v>184</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" ht="39" spans="1:5">
@@ -26922,16 +26949,16 @@
         <v>185</v>
       </c>
       <c r="B189" s="39" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C189" s="39" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26939,16 +26966,16 @@
         <v>186</v>
       </c>
       <c r="B190" s="39" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C190" s="39" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26956,16 +26983,16 @@
         <v>187</v>
       </c>
       <c r="B191" s="39" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C191" s="39" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D191" s="41" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26973,16 +27000,16 @@
         <v>188</v>
       </c>
       <c r="B192" s="39" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D192" s="41" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26990,16 +27017,16 @@
         <v>189</v>
       </c>
       <c r="B193" s="39" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D193" s="41" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27007,16 +27034,16 @@
         <v>190</v>
       </c>
       <c r="B194" s="39" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="D194" s="32" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27024,16 +27051,16 @@
         <v>191</v>
       </c>
       <c r="B195" s="39" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C195" s="39" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="D195" s="41" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27041,16 +27068,16 @@
         <v>192</v>
       </c>
       <c r="B196" s="39" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C196" s="39" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="D196" s="42" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27058,16 +27085,16 @@
         <v>193</v>
       </c>
       <c r="B197" s="39" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C197" s="39" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="D197" s="41" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="1" ht="51" spans="1:5">
@@ -27075,16 +27102,16 @@
         <v>194</v>
       </c>
       <c r="B198" s="39" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C198" s="39" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D198" s="32" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27092,16 +27119,16 @@
         <v>195</v>
       </c>
       <c r="B199" s="38" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C199" s="38" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27109,16 +27136,16 @@
         <v>196</v>
       </c>
       <c r="B200" s="39" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="D200" s="42" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27126,16 +27153,16 @@
         <v>197</v>
       </c>
       <c r="B201" s="39" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C201" s="39" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D201" s="32" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27143,16 +27170,16 @@
         <v>198</v>
       </c>
       <c r="B202" s="38" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C202" s="38" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D202" s="32" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27160,16 +27187,16 @@
         <v>199</v>
       </c>
       <c r="B203" s="38" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C203" s="38" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="D203" s="32" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27177,16 +27204,16 @@
         <v>200</v>
       </c>
       <c r="B204" s="39" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C204" s="39" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="D204" s="42" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="1" ht="39" spans="1:5">
@@ -27194,16 +27221,16 @@
         <v>201</v>
       </c>
       <c r="B205" s="39" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C205" s="39" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D205" s="41" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="1" ht="39" spans="1:5">
@@ -27211,16 +27238,16 @@
         <v>202</v>
       </c>
       <c r="B206" s="38" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C206" s="38" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D206" s="27" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27228,16 +27255,16 @@
         <v>203</v>
       </c>
       <c r="B207" s="38" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C207" s="38" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27245,16 +27272,16 @@
         <v>204</v>
       </c>
       <c r="B208" s="39" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C208" s="39" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="D208" s="45" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="209" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27262,16 +27289,16 @@
         <v>205</v>
       </c>
       <c r="B209" s="39" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C209" s="39" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D209" s="42" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="210" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27279,16 +27306,16 @@
         <v>206</v>
       </c>
       <c r="B210" s="38" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C210" s="38" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D210" s="32" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="211" s="1" customFormat="1" ht="39" spans="1:5">
@@ -27296,16 +27323,16 @@
         <v>207</v>
       </c>
       <c r="B211" s="39" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C211" s="39" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D211" s="41" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="212" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27313,16 +27340,16 @@
         <v>208</v>
       </c>
       <c r="B212" s="38" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C212" s="38" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D212" s="27" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="213" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27330,16 +27357,16 @@
         <v>209</v>
       </c>
       <c r="B213" s="39" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C213" s="39" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D213" s="42" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="214" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27347,16 +27374,16 @@
         <v>210</v>
       </c>
       <c r="B214" s="39" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C214" s="39" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D214" s="42" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="215" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27364,16 +27391,16 @@
         <v>211</v>
       </c>
       <c r="B215" s="38" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C215" s="38" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D215" s="32" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="216" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27381,16 +27408,16 @@
         <v>212</v>
       </c>
       <c r="B216" s="39" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C216" s="39" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D216" s="42" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="217" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27398,16 +27425,16 @@
         <v>213</v>
       </c>
       <c r="B217" s="39" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C217" s="39" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D217" s="42" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="218" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27415,16 +27442,16 @@
         <v>214</v>
       </c>
       <c r="B218" s="39" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C218" s="39" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D218" s="42" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="219" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27432,16 +27459,16 @@
         <v>215</v>
       </c>
       <c r="B219" s="39" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C219" s="39" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="D219" s="42" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="220" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27449,16 +27476,16 @@
         <v>216</v>
       </c>
       <c r="B220" s="39" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C220" s="39" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D220" s="41" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="221" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27466,16 +27493,16 @@
         <v>217</v>
       </c>
       <c r="B221" s="39" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C221" s="39" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="D221" s="41" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="222" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27483,16 +27510,16 @@
         <v>218</v>
       </c>
       <c r="B222" s="39" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C222" s="39" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D222" s="42" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="223" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27500,16 +27527,16 @@
         <v>219</v>
       </c>
       <c r="B223" s="39" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C223" s="39" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="D223" s="41" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="224" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27517,16 +27544,16 @@
         <v>220</v>
       </c>
       <c r="B224" s="38" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D224" s="27" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
     </row>
     <row r="225" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27534,16 +27561,16 @@
         <v>221</v>
       </c>
       <c r="B225" s="39" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D225" s="42" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="226" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27551,16 +27578,16 @@
         <v>222</v>
       </c>
       <c r="B226" s="38" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="D226" s="32" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="227" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27568,16 +27595,16 @@
         <v>223</v>
       </c>
       <c r="B227" s="38" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D227" s="32" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="228" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27585,16 +27612,16 @@
         <v>224</v>
       </c>
       <c r="B228" s="39" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C228" s="39" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="D228" s="42" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="229" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27602,16 +27629,16 @@
         <v>225</v>
       </c>
       <c r="B229" s="39" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C229" s="39" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="D229" s="41" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="230" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27619,16 +27646,16 @@
         <v>226</v>
       </c>
       <c r="B230" s="39" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C230" s="39" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D230" s="42" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="231" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27636,16 +27663,16 @@
         <v>227</v>
       </c>
       <c r="B231" s="38" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="232" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27653,16 +27680,16 @@
         <v>228</v>
       </c>
       <c r="B232" s="39" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C232" s="39" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D232" s="32" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="233" s="1" customFormat="1" ht="39" spans="1:5">
@@ -27670,16 +27697,16 @@
         <v>229</v>
       </c>
       <c r="B233" s="38" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D233" s="32" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="234" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27687,16 +27714,16 @@
         <v>230</v>
       </c>
       <c r="B234" s="39" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C234" s="39" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="235" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27704,16 +27731,16 @@
         <v>231</v>
       </c>
       <c r="B235" s="39" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D235" s="27" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelData/Excel/MainData.xlsx
+++ b/Assets/Resources/ExcelData/Excel/MainData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="956">
   <si>
     <t>多语言配表</t>
   </si>
@@ -3664,6 +3664,9 @@
     <t>Sprites/农作物/农作物</t>
   </si>
   <si>
+    <t>配音/9</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -7293,6 +7296,9 @@
     <t>Sprites/稀树草原动物/稀树草原动物</t>
   </si>
   <si>
+    <t>配音/3</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -7888,6 +7894,9 @@
     <t>Sprites/湿地动物/湿地动物</t>
   </si>
   <si>
+    <t>配音/4</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -14966,6 +14975,9 @@
     <t>Sprites/牡丹江流域野生动物/牡丹江流域野生动物</t>
   </si>
   <si>
+    <t>配音/7</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="22"/>
@@ -22198,6 +22210,78 @@
   </si>
   <si>
     <t>Sprites/牡丹江流域野生动物/棕眉山岩鹨</t>
+  </si>
+  <si>
+    <t>进门展台</t>
+  </si>
+  <si>
+    <t>配音/1</t>
+  </si>
+  <si>
+    <t>稀树草原区</t>
+  </si>
+  <si>
+    <t>湿地区</t>
+  </si>
+  <si>
+    <t>牡丹江流域区1</t>
+  </si>
+  <si>
+    <t>配音/5</t>
+  </si>
+  <si>
+    <t>珍惜濒危区</t>
+  </si>
+  <si>
+    <t>配音/6</t>
+  </si>
+  <si>
+    <t>牡丹江流域区2</t>
+  </si>
+  <si>
+    <t>生命支撑区</t>
+  </si>
+  <si>
+    <t>配音/8</t>
+  </si>
+  <si>
+    <t>农业区</t>
+  </si>
+  <si>
+    <t>啮齿动物区</t>
+  </si>
+  <si>
+    <t>配音/10</t>
+  </si>
+  <si>
+    <t>动物多样性区</t>
+  </si>
+  <si>
+    <t>配音/12</t>
+  </si>
+  <si>
+    <t>北药区</t>
+  </si>
+  <si>
+    <t>配音/13</t>
+  </si>
+  <si>
+    <t>植物标本区</t>
+  </si>
+  <si>
+    <t>昆虫世界区</t>
+  </si>
+  <si>
+    <t>海底世界区</t>
+  </si>
+  <si>
+    <t>配音/16</t>
+  </si>
+  <si>
+    <t>食用菌区</t>
+  </si>
+  <si>
+    <t>配音/17</t>
   </si>
 </sst>
 </file>
@@ -23721,12 +23805,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -24921,7 +25005,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="150" spans="1:5">
+    <row r="70" s="1" customFormat="1" ht="150" spans="1:6">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -24936,6 +25020,9 @@
       </c>
       <c r="E70" s="1" t="s">
         <v>276</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="112.5" spans="1:5">
@@ -24943,16 +25030,16 @@
         <v>67</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="112.5" spans="1:5">
@@ -24960,16 +25047,16 @@
         <v>68</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="75" spans="1:5">
@@ -24977,16 +25064,16 @@
         <v>69</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="93.75" spans="1:5">
@@ -24994,16 +25081,16 @@
         <v>70</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="112.5" spans="1:5">
@@ -25011,16 +25098,16 @@
         <v>71</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="72.75" spans="1:5">
@@ -25028,16 +25115,16 @@
         <v>72</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="93.75" spans="1:5">
@@ -25045,16 +25132,16 @@
         <v>73</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="75" spans="1:5">
@@ -25062,16 +25149,16 @@
         <v>74</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="112.5" spans="1:5">
@@ -25079,16 +25166,16 @@
         <v>75</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25096,16 +25183,16 @@
         <v>76</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25113,16 +25200,16 @@
         <v>77</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25130,16 +25217,16 @@
         <v>78</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25147,16 +25234,16 @@
         <v>79</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25164,16 +25251,16 @@
         <v>80</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25181,16 +25268,16 @@
         <v>81</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="45.75" spans="1:5">
@@ -25198,16 +25285,16 @@
         <v>82</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25215,16 +25302,16 @@
         <v>83</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25232,16 +25319,16 @@
         <v>84</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25249,16 +25336,16 @@
         <v>85</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25266,16 +25353,16 @@
         <v>86</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25283,16 +25370,16 @@
         <v>87</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25300,16 +25387,16 @@
         <v>88</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25317,16 +25404,16 @@
         <v>89</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25334,16 +25421,16 @@
         <v>90</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25351,16 +25438,16 @@
         <v>91</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" ht="51" spans="1:5">
@@ -25368,16 +25455,16 @@
         <v>92</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25385,16 +25472,16 @@
         <v>93</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25402,16 +25489,16 @@
         <v>94</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25419,16 +25506,16 @@
         <v>95</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="18.75" spans="1:5">
@@ -25436,16 +25523,16 @@
         <v>96</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25453,16 +25540,16 @@
         <v>97</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25470,16 +25557,16 @@
         <v>98</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" ht="39" spans="1:5">
@@ -25487,33 +25574,36 @@
         <v>99</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" ht="202.5" spans="1:5">
+    <row r="104" s="1" customFormat="1" ht="202.5" spans="1:6">
       <c r="A104" s="1">
         <v>100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25521,16 +25611,16 @@
         <v>101</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25538,16 +25628,16 @@
         <v>102</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25555,16 +25645,16 @@
         <v>103</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25572,16 +25662,16 @@
         <v>104</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25589,16 +25679,16 @@
         <v>105</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25606,16 +25696,16 @@
         <v>106</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -25623,16 +25713,16 @@
         <v>107</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" ht="39" spans="1:5">
@@ -25640,33 +25730,36 @@
         <v>108</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="182.25" spans="1:5">
+    <row r="113" s="1" customFormat="1" ht="182.25" spans="1:6">
       <c r="A113" s="1">
         <v>109</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -25674,16 +25767,16 @@
         <v>110</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25691,16 +25784,16 @@
         <v>111</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25708,16 +25801,16 @@
         <v>112</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25725,16 +25818,16 @@
         <v>113</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25742,16 +25835,16 @@
         <v>114</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25759,16 +25852,16 @@
         <v>115</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25776,16 +25869,16 @@
         <v>116</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -25793,16 +25886,16 @@
         <v>117</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25810,16 +25903,16 @@
         <v>118</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25827,16 +25920,16 @@
         <v>119</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25844,16 +25937,16 @@
         <v>120</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25861,16 +25954,16 @@
         <v>121</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25878,16 +25971,16 @@
         <v>122</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25895,16 +25988,16 @@
         <v>123</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25912,16 +26005,16 @@
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25929,16 +26022,16 @@
         <v>125</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25946,16 +26039,16 @@
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25963,16 +26056,16 @@
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="1" ht="25.5" spans="1:5">
@@ -25980,16 +26073,16 @@
         <v>128</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="1" ht="28.5" spans="1:5">
@@ -25997,16 +26090,16 @@
         <v>129</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" ht="15.75" spans="1:5">
@@ -26014,16 +26107,16 @@
         <v>130</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" ht="222.75" spans="1:5">
@@ -26031,16 +26124,16 @@
         <v>131</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="1" ht="33.75" spans="1:5">
@@ -26048,16 +26141,16 @@
         <v>132</v>
       </c>
       <c r="B136" s="36" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26065,16 +26158,16 @@
         <v>133</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="1" ht="33.75" spans="1:5">
@@ -26082,16 +26175,16 @@
         <v>134</v>
       </c>
       <c r="B138" s="36" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D138" s="27" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26099,16 +26192,16 @@
         <v>135</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26116,16 +26209,16 @@
         <v>136</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26133,16 +26226,16 @@
         <v>137</v>
       </c>
       <c r="B141" s="39" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C141" s="39" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26150,16 +26243,16 @@
         <v>138</v>
       </c>
       <c r="B142" s="39" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C142" s="39" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" ht="42.75" spans="1:5">
@@ -26167,16 +26260,16 @@
         <v>139</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" ht="39.75" spans="1:5">
@@ -26184,16 +26277,16 @@
         <v>140</v>
       </c>
       <c r="B144" s="39" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C144" s="39" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" ht="33" spans="1:5">
@@ -26201,16 +26294,16 @@
         <v>141</v>
       </c>
       <c r="B145" s="40" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26218,16 +26311,16 @@
         <v>142</v>
       </c>
       <c r="B146" s="39" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C146" s="39" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26235,16 +26328,16 @@
         <v>143</v>
       </c>
       <c r="B147" s="39" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C147" s="39" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D147" s="41" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="1" ht="39" spans="1:5">
@@ -26252,16 +26345,16 @@
         <v>144</v>
       </c>
       <c r="B148" s="39" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C148" s="39" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26269,16 +26362,16 @@
         <v>145</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26286,16 +26379,16 @@
         <v>146</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C150" s="38" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26303,16 +26396,16 @@
         <v>147</v>
       </c>
       <c r="B151" s="39" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26320,16 +26413,16 @@
         <v>148</v>
       </c>
       <c r="B152" s="39" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D152" s="32" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26337,16 +26430,16 @@
         <v>149</v>
       </c>
       <c r="B153" s="38" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D153" s="32" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" ht="39" spans="1:5">
@@ -26354,16 +26447,16 @@
         <v>150</v>
       </c>
       <c r="B154" s="39" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C154" s="39" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26371,16 +26464,16 @@
         <v>151</v>
       </c>
       <c r="B155" s="39" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C155" s="39" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="1" ht="112.5" spans="1:5">
@@ -26388,16 +26481,16 @@
         <v>152</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="1" ht="54" spans="1:5">
@@ -26405,16 +26498,16 @@
         <v>153</v>
       </c>
       <c r="B157" s="39" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C157" s="39" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D157" s="42" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="1" ht="37.5" spans="1:5">
@@ -26422,16 +26515,16 @@
         <v>154</v>
       </c>
       <c r="B158" s="43" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C158" s="43" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26439,16 +26532,16 @@
         <v>155</v>
       </c>
       <c r="B159" s="39" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C159" s="39" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D159" s="44" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26456,16 +26549,16 @@
         <v>156</v>
       </c>
       <c r="B160" s="39" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C160" s="39" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26473,16 +26566,16 @@
         <v>157</v>
       </c>
       <c r="B161" s="39" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C161" s="39" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D161" s="41" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26490,16 +26583,16 @@
         <v>158</v>
       </c>
       <c r="B162" s="39" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C162" s="39" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D162" s="41" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26507,16 +26600,16 @@
         <v>159</v>
       </c>
       <c r="B163" s="39" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C163" s="39" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26524,16 +26617,16 @@
         <v>160</v>
       </c>
       <c r="B164" s="39" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C164" s="39" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26541,16 +26634,16 @@
         <v>161</v>
       </c>
       <c r="B165" s="39" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C165" s="39" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D165" s="41" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26558,16 +26651,16 @@
         <v>162</v>
       </c>
       <c r="B166" s="39" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C166" s="39" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D166" s="41" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26575,16 +26668,16 @@
         <v>163</v>
       </c>
       <c r="B167" s="39" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C167" s="39" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D167" s="41" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26592,16 +26685,16 @@
         <v>164</v>
       </c>
       <c r="B168" s="39" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C168" s="39" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D168" s="42" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26609,16 +26702,16 @@
         <v>165</v>
       </c>
       <c r="B169" s="39" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C169" s="39" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26626,16 +26719,16 @@
         <v>166</v>
       </c>
       <c r="B170" s="39" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C170" s="39" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D170" s="41" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26643,16 +26736,16 @@
         <v>167</v>
       </c>
       <c r="B171" s="39" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C171" s="39" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" ht="39.75" spans="1:5">
@@ -26660,16 +26753,16 @@
         <v>168</v>
       </c>
       <c r="B172" s="39" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C172" s="39" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D172" s="42" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26677,16 +26770,16 @@
         <v>169</v>
       </c>
       <c r="B173" s="39" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C173" s="39" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D173" s="41" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26694,16 +26787,16 @@
         <v>170</v>
       </c>
       <c r="B174" s="39" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="1" ht="39" spans="1:5">
@@ -26711,33 +26804,36 @@
         <v>171</v>
       </c>
       <c r="B175" s="39" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C175" s="39" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D175" s="27" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" ht="131.25" spans="1:5">
+    <row r="176" s="1" customFormat="1" ht="131.25" spans="1:6">
       <c r="A176" s="1">
         <v>172</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>693</v>
+        <v>696</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26745,16 +26841,16 @@
         <v>173</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26762,16 +26858,16 @@
         <v>174</v>
       </c>
       <c r="B178" s="39" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C178" s="39" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D178" s="41" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26779,16 +26875,16 @@
         <v>175</v>
       </c>
       <c r="B179" s="38" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D179" s="32" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26796,16 +26892,16 @@
         <v>176</v>
       </c>
       <c r="B180" s="39" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C180" s="39" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D180" s="32" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26813,16 +26909,16 @@
         <v>177</v>
       </c>
       <c r="B181" s="39" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C181" s="39" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D181" s="42" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" ht="51" spans="1:5">
@@ -26830,16 +26926,16 @@
         <v>178</v>
       </c>
       <c r="B182" s="39" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C182" s="39" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D182" s="42" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26847,16 +26943,16 @@
         <v>179</v>
       </c>
       <c r="B183" s="39" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C183" s="39" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26864,16 +26960,16 @@
         <v>180</v>
       </c>
       <c r="B184" s="39" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C184" s="39" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D184" s="41" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26881,16 +26977,16 @@
         <v>181</v>
       </c>
       <c r="B185" s="39" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C185" s="39" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D185" s="41" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26898,16 +26994,16 @@
         <v>182</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26915,16 +27011,16 @@
         <v>183</v>
       </c>
       <c r="B187" s="39" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C187" s="39" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D187" s="41" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26932,16 +27028,16 @@
         <v>184</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" ht="39" spans="1:5">
@@ -26949,16 +27045,16 @@
         <v>185</v>
       </c>
       <c r="B189" s="39" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C189" s="39" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1" ht="27" spans="1:5">
@@ -26966,16 +27062,16 @@
         <v>186</v>
       </c>
       <c r="B190" s="39" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C190" s="39" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -26983,16 +27079,16 @@
         <v>187</v>
       </c>
       <c r="B191" s="39" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C191" s="39" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D191" s="41" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27000,16 +27096,16 @@
         <v>188</v>
       </c>
       <c r="B192" s="39" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D192" s="41" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27017,16 +27113,16 @@
         <v>189</v>
       </c>
       <c r="B193" s="39" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="D193" s="41" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27034,16 +27130,16 @@
         <v>190</v>
       </c>
       <c r="B194" s="39" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="D194" s="32" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27051,16 +27147,16 @@
         <v>191</v>
       </c>
       <c r="B195" s="39" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C195" s="39" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="D195" s="41" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27068,16 +27164,16 @@
         <v>192</v>
       </c>
       <c r="B196" s="39" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C196" s="39" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="D196" s="42" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27085,16 +27181,16 @@
         <v>193</v>
       </c>
       <c r="B197" s="39" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C197" s="39" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D197" s="41" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="1" ht="51" spans="1:5">
@@ -27102,16 +27198,16 @@
         <v>194</v>
       </c>
       <c r="B198" s="39" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C198" s="39" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D198" s="32" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27119,16 +27215,16 @@
         <v>195</v>
       </c>
       <c r="B199" s="38" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C199" s="38" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27136,16 +27232,16 @@
         <v>196</v>
       </c>
       <c r="B200" s="39" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D200" s="42" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27153,16 +27249,16 @@
         <v>197</v>
       </c>
       <c r="B201" s="39" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C201" s="39" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D201" s="32" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27170,16 +27266,16 @@
         <v>198</v>
       </c>
       <c r="B202" s="38" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C202" s="38" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="D202" s="32" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27187,16 +27283,16 @@
         <v>199</v>
       </c>
       <c r="B203" s="38" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C203" s="38" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="D203" s="32" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27204,16 +27300,16 @@
         <v>200</v>
       </c>
       <c r="B204" s="39" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C204" s="39" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D204" s="42" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="1" ht="39" spans="1:5">
@@ -27221,16 +27317,16 @@
         <v>201</v>
       </c>
       <c r="B205" s="39" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C205" s="39" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D205" s="41" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="1" ht="39" spans="1:5">
@@ -27238,16 +27334,16 @@
         <v>202</v>
       </c>
       <c r="B206" s="38" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C206" s="38" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D206" s="27" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27255,16 +27351,16 @@
         <v>203</v>
       </c>
       <c r="B207" s="38" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C207" s="38" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27272,16 +27368,16 @@
         <v>204</v>
       </c>
       <c r="B208" s="39" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C208" s="39" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D208" s="45" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="209" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27289,16 +27385,16 @@
         <v>205</v>
       </c>
       <c r="B209" s="39" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C209" s="39" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D209" s="42" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="210" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27306,16 +27402,16 @@
         <v>206</v>
       </c>
       <c r="B210" s="38" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C210" s="38" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D210" s="32" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="211" s="1" customFormat="1" ht="39" spans="1:5">
@@ -27323,16 +27419,16 @@
         <v>207</v>
       </c>
       <c r="B211" s="39" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C211" s="39" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D211" s="41" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="212" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27340,16 +27436,16 @@
         <v>208</v>
       </c>
       <c r="B212" s="38" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C212" s="38" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D212" s="27" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="213" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27357,16 +27453,16 @@
         <v>209</v>
       </c>
       <c r="B213" s="39" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C213" s="39" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D213" s="42" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="214" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27374,16 +27470,16 @@
         <v>210</v>
       </c>
       <c r="B214" s="39" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C214" s="39" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D214" s="42" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="215" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27391,16 +27487,16 @@
         <v>211</v>
       </c>
       <c r="B215" s="38" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C215" s="38" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D215" s="32" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="216" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27408,16 +27504,16 @@
         <v>212</v>
       </c>
       <c r="B216" s="39" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C216" s="39" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D216" s="42" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="217" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27425,16 +27521,16 @@
         <v>213</v>
       </c>
       <c r="B217" s="39" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C217" s="39" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D217" s="42" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="218" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27442,16 +27538,16 @@
         <v>214</v>
       </c>
       <c r="B218" s="39" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C218" s="39" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="D218" s="42" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="219" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27459,16 +27555,16 @@
         <v>215</v>
       </c>
       <c r="B219" s="39" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C219" s="39" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D219" s="42" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="220" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27476,16 +27572,16 @@
         <v>216</v>
       </c>
       <c r="B220" s="39" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C220" s="39" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="D220" s="41" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="221" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27493,16 +27589,16 @@
         <v>217</v>
       </c>
       <c r="B221" s="39" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C221" s="39" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D221" s="41" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="222" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27510,16 +27606,16 @@
         <v>218</v>
       </c>
       <c r="B222" s="39" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C222" s="39" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="D222" s="42" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="223" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27527,16 +27623,16 @@
         <v>219</v>
       </c>
       <c r="B223" s="39" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C223" s="39" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D223" s="41" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
     </row>
     <row r="224" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27544,16 +27640,16 @@
         <v>220</v>
       </c>
       <c r="B224" s="38" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D224" s="27" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="225" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27561,16 +27657,16 @@
         <v>221</v>
       </c>
       <c r="B225" s="39" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="D225" s="42" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="226" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27578,16 +27674,16 @@
         <v>222</v>
       </c>
       <c r="B226" s="38" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D226" s="32" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="227" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27595,16 +27691,16 @@
         <v>223</v>
       </c>
       <c r="B227" s="38" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="D227" s="32" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="228" s="1" customFormat="1" ht="27" spans="1:5">
@@ -27612,16 +27708,16 @@
         <v>224</v>
       </c>
       <c r="B228" s="39" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C228" s="39" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="D228" s="42" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="229" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27629,16 +27725,16 @@
         <v>225</v>
       </c>
       <c r="B229" s="39" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C229" s="39" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D229" s="41" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="230" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27646,16 +27742,16 @@
         <v>226</v>
       </c>
       <c r="B230" s="39" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C230" s="39" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D230" s="42" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="231" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27663,16 +27759,16 @@
         <v>227</v>
       </c>
       <c r="B231" s="38" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="232" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27680,16 +27776,16 @@
         <v>228</v>
       </c>
       <c r="B232" s="39" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C232" s="39" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D232" s="32" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="233" s="1" customFormat="1" ht="39" spans="1:5">
@@ -27697,16 +27793,16 @@
         <v>229</v>
       </c>
       <c r="B233" s="38" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D233" s="32" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="234" s="1" customFormat="1" ht="38.25" spans="1:5">
@@ -27714,16 +27810,16 @@
         <v>230</v>
       </c>
       <c r="B234" s="39" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C234" s="39" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
     </row>
     <row r="235" s="1" customFormat="1" ht="54" spans="1:5">
@@ -27731,16 +27827,181 @@
         <v>231</v>
       </c>
       <c r="B235" s="39" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="D235" s="27" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>927</v>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>232</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>233</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>234</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>235</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>236</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>237</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>238</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>239</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>240</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>241</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>242</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>243</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>244</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>245</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>246</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
